--- a/test-data/verify/용역비지급명부_계산.xlsx
+++ b/test-data/verify/용역비지급명부_계산.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13281B11-55F9-4A2A-9780-594B60A79040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C12B7D-74EB-4E21-9914-0797DC3F1998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="용역비 지급명부" sheetId="1" r:id="rId1"/>
@@ -13,24 +13,14 @@
     <sheet name="7~10월계산" sheetId="4" r:id="rId3"/>
     <sheet name="7~10합산" sheetId="5" r:id="rId4"/>
     <sheet name="용역비 지급명부(7~10)" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="617">
   <si>
     <t>용역비 지급명부</t>
   </si>
@@ -1760,6 +1750,278 @@
   </si>
   <si>
     <t>시스템합산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사장님F4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월1주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월1주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 매출 10회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 매출 10회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 매출 10회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월2주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월3주</t>
+  </si>
+  <si>
+    <t>8월4주</t>
+  </si>
+  <si>
+    <t>8월5주</t>
+  </si>
+  <si>
+    <t>9월2주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월3주</t>
+  </si>
+  <si>
+    <t>9월4주</t>
+  </si>
+  <si>
+    <t>F1(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1(5),F2(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(f1)5/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직급변함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승급없이 추가지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(f1)5,(f2)1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원천징수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실지급액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급(회수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간총계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">순번 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년08월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계 총액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용역 총액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 총액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계사 지급명부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용액총액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수당금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동3</t>
+  </si>
+  <si>
+    <t>홍길동4</t>
+  </si>
+  <si>
+    <t>홍길동5</t>
+  </si>
+  <si>
+    <t>2025년09월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용역비 지급명부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년08월 1주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년08월 2주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년 3만원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년 10만원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운로드/설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 등록 계정(store)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apk 파일 강제설치가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운받아서 설치가능만 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>---&gt; WEB 페이지 보여주게 끔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">절차/추가, 주민등록번호 수집, 보안처리… </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1772,7 +2034,7 @@
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="178" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1845,6 +2107,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1948,7 +2217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -2348,11 +2617,266 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2529,6 +3053,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2544,12 +3074,133 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="11" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="11" borderId="48" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="11" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="11" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="11" borderId="46" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5603,6 +6254,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>265781</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5273C48-3B31-05D3-783E-44BE42C6631E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="13277850"/>
+          <a:ext cx="7352381" cy="914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5943,31 +6643,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
+      <c r="A1" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6020,19 +6720,19 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="90" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -6091,11 +6791,11 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="6" t="s">
         <v>37</v>
       </c>
@@ -7986,7 +8686,7 @@
       </c>
     </row>
     <row r="53" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E53" s="86" t="s">
+      <c r="E53" s="88" t="s">
         <v>83</v>
       </c>
       <c r="F53" s="17">
@@ -8020,7 +8720,7 @@
       </c>
     </row>
     <row r="54" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E54" s="86"/>
+      <c r="E54" s="88"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16">
         <v>0.19</v>
@@ -8050,7 +8750,7 @@
       </c>
     </row>
     <row r="55" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E55" s="86"/>
+      <c r="E55" s="88"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16">
         <v>0.14000000000000001</v>
@@ -8080,7 +8780,7 @@
       </c>
     </row>
     <row r="56" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E56" s="86"/>
+      <c r="E56" s="88"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16">
         <v>0.09</v>
@@ -8137,7 +8837,7 @@
       </c>
     </row>
     <row r="59" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E59" s="86" t="s">
+      <c r="E59" s="88" t="s">
         <v>85</v>
       </c>
       <c r="F59" s="17">
@@ -8171,7 +8871,7 @@
       </c>
     </row>
     <row r="60" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E60" s="86"/>
+      <c r="E60" s="88"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16">
         <v>0.19</v>
@@ -8201,7 +8901,7 @@
       </c>
     </row>
     <row r="61" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E61" s="86"/>
+      <c r="E61" s="88"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16">
         <v>0.14000000000000001</v>
@@ -8231,7 +8931,7 @@
       </c>
     </row>
     <row r="62" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E62" s="86"/>
+      <c r="E62" s="88"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16">
         <v>0.09</v>
@@ -8290,7 +8990,7 @@
       </c>
     </row>
     <row r="65" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E65" s="86" t="s">
+      <c r="E65" s="88" t="s">
         <v>84</v>
       </c>
       <c r="F65" s="17">
@@ -8324,7 +9024,7 @@
       </c>
     </row>
     <row r="66" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E66" s="86"/>
+      <c r="E66" s="88"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16">
         <v>0.19</v>
@@ -8354,7 +9054,7 @@
       </c>
     </row>
     <row r="67" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E67" s="86"/>
+      <c r="E67" s="88"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16">
         <v>0.14000000000000001</v>
@@ -8384,7 +9084,7 @@
       </c>
     </row>
     <row r="68" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E68" s="86"/>
+      <c r="E68" s="88"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16">
         <v>0.09</v>
@@ -11418,8 +12118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7195245-8694-4647-ABB1-D814317ED8BD}">
   <dimension ref="D2:AD366"/>
   <sheetViews>
-    <sheetView topLeftCell="E339" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P369" sqref="P369"/>
+    <sheetView topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N107" sqref="N107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -13676,23 +14376,23 @@
       </c>
     </row>
     <row r="93" spans="10:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J93" s="89" t="s">
+      <c r="J93" s="91" t="s">
         <v>368</v>
       </c>
-      <c r="K93" s="89"/>
-      <c r="L93" s="89"/>
-      <c r="M93" s="89"/>
-      <c r="N93" s="89"/>
-      <c r="O93" s="89"/>
-      <c r="P93" s="89"/>
-      <c r="Q93" s="89"/>
-      <c r="R93" s="89"/>
-      <c r="S93" s="89"/>
-      <c r="T93" s="89"/>
-      <c r="U93" s="89"/>
-      <c r="V93" s="89"/>
-      <c r="W93" s="89"/>
-      <c r="X93" s="89"/>
+      <c r="K93" s="91"/>
+      <c r="L93" s="91"/>
+      <c r="M93" s="91"/>
+      <c r="N93" s="91"/>
+      <c r="O93" s="91"/>
+      <c r="P93" s="91"/>
+      <c r="Q93" s="91"/>
+      <c r="R93" s="91"/>
+      <c r="S93" s="91"/>
+      <c r="T93" s="91"/>
+      <c r="U93" s="91"/>
+      <c r="V93" s="91"/>
+      <c r="W93" s="91"/>
+      <c r="X93" s="91"/>
     </row>
     <row r="94" spans="10:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J94" s="1" t="s">
@@ -13700,23 +14400,23 @@
       </c>
     </row>
     <row r="95" spans="10:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J95" s="89" t="s">
+      <c r="J95" s="91" t="s">
         <v>369</v>
       </c>
-      <c r="K95" s="89"/>
-      <c r="L95" s="89"/>
-      <c r="M95" s="89"/>
-      <c r="N95" s="89"/>
-      <c r="O95" s="89"/>
-      <c r="P95" s="89"/>
-      <c r="Q95" s="89"/>
-      <c r="R95" s="89"/>
-      <c r="S95" s="89"/>
-      <c r="T95" s="89"/>
-      <c r="U95" s="89"/>
-      <c r="V95" s="89"/>
-      <c r="W95" s="89"/>
-      <c r="X95" s="89"/>
+      <c r="K95" s="91"/>
+      <c r="L95" s="91"/>
+      <c r="M95" s="91"/>
+      <c r="N95" s="91"/>
+      <c r="O95" s="91"/>
+      <c r="P95" s="91"/>
+      <c r="Q95" s="91"/>
+      <c r="R95" s="91"/>
+      <c r="S95" s="91"/>
+      <c r="T95" s="91"/>
+      <c r="U95" s="91"/>
+      <c r="V95" s="91"/>
+      <c r="W95" s="91"/>
+      <c r="X95" s="91"/>
     </row>
     <row r="96" spans="10:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J96" s="1" t="s">
@@ -13724,23 +14424,23 @@
       </c>
     </row>
     <row r="97" spans="10:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J97" s="89" t="s">
+      <c r="J97" s="91" t="s">
         <v>370</v>
       </c>
-      <c r="K97" s="89"/>
-      <c r="L97" s="89"/>
-      <c r="M97" s="89"/>
-      <c r="N97" s="89"/>
-      <c r="O97" s="89"/>
-      <c r="P97" s="89"/>
-      <c r="Q97" s="89"/>
-      <c r="R97" s="89"/>
-      <c r="S97" s="89"/>
-      <c r="T97" s="89"/>
-      <c r="U97" s="89"/>
-      <c r="V97" s="89"/>
-      <c r="W97" s="89"/>
-      <c r="X97" s="89"/>
+      <c r="K97" s="91"/>
+      <c r="L97" s="91"/>
+      <c r="M97" s="91"/>
+      <c r="N97" s="91"/>
+      <c r="O97" s="91"/>
+      <c r="P97" s="91"/>
+      <c r="Q97" s="91"/>
+      <c r="R97" s="91"/>
+      <c r="S97" s="91"/>
+      <c r="T97" s="91"/>
+      <c r="U97" s="91"/>
+      <c r="V97" s="91"/>
+      <c r="W97" s="91"/>
+      <c r="X97" s="91"/>
     </row>
     <row r="98" spans="10:25" x14ac:dyDescent="0.25">
       <c r="J98" s="1" t="s">
@@ -17135,25 +17835,25 @@
       </c>
     </row>
     <row r="190" spans="10:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J190" s="90" t="s">
+      <c r="J190" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="K190" s="90"/>
-      <c r="L190" s="90"/>
-      <c r="M190" s="90"/>
-      <c r="N190" s="90"/>
-      <c r="O190" s="90"/>
-      <c r="P190" s="90"/>
-      <c r="Q190" s="90"/>
-      <c r="R190" s="90"/>
-      <c r="S190" s="90"/>
-      <c r="T190" s="90"/>
-      <c r="U190" s="90"/>
-      <c r="V190" s="90"/>
-      <c r="W190" s="90"/>
-      <c r="X190" s="90"/>
-      <c r="Y190" s="90"/>
-      <c r="Z190" s="90"/>
+      <c r="K190" s="92"/>
+      <c r="L190" s="92"/>
+      <c r="M190" s="92"/>
+      <c r="N190" s="92"/>
+      <c r="O190" s="92"/>
+      <c r="P190" s="92"/>
+      <c r="Q190" s="92"/>
+      <c r="R190" s="92"/>
+      <c r="S190" s="92"/>
+      <c r="T190" s="92"/>
+      <c r="U190" s="92"/>
+      <c r="V190" s="92"/>
+      <c r="W190" s="92"/>
+      <c r="X190" s="92"/>
+      <c r="Y190" s="92"/>
+      <c r="Z190" s="92"/>
     </row>
     <row r="191" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J191" s="1" t="s">
@@ -17161,25 +17861,25 @@
       </c>
     </row>
     <row r="192" spans="10:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J192" s="89" t="s">
+      <c r="J192" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="K192" s="89"/>
-      <c r="L192" s="89"/>
-      <c r="M192" s="89"/>
-      <c r="N192" s="89"/>
-      <c r="O192" s="89"/>
-      <c r="P192" s="89"/>
-      <c r="Q192" s="89"/>
-      <c r="R192" s="89"/>
-      <c r="S192" s="89"/>
-      <c r="T192" s="89"/>
-      <c r="U192" s="89"/>
-      <c r="V192" s="89"/>
-      <c r="W192" s="89"/>
-      <c r="X192" s="89"/>
-      <c r="Y192" s="89"/>
-      <c r="Z192" s="89"/>
+      <c r="K192" s="91"/>
+      <c r="L192" s="91"/>
+      <c r="M192" s="91"/>
+      <c r="N192" s="91"/>
+      <c r="O192" s="91"/>
+      <c r="P192" s="91"/>
+      <c r="Q192" s="91"/>
+      <c r="R192" s="91"/>
+      <c r="S192" s="91"/>
+      <c r="T192" s="91"/>
+      <c r="U192" s="91"/>
+      <c r="V192" s="91"/>
+      <c r="W192" s="91"/>
+      <c r="X192" s="91"/>
+      <c r="Y192" s="91"/>
+      <c r="Z192" s="91"/>
     </row>
     <row r="193" spans="10:27" x14ac:dyDescent="0.25">
       <c r="J193" s="1" t="s">
@@ -17187,25 +17887,25 @@
       </c>
     </row>
     <row r="194" spans="10:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J194" s="89" t="s">
+      <c r="J194" s="91" t="s">
         <v>266</v>
       </c>
-      <c r="K194" s="89"/>
-      <c r="L194" s="89"/>
-      <c r="M194" s="89"/>
-      <c r="N194" s="89"/>
-      <c r="O194" s="89"/>
-      <c r="P194" s="89"/>
-      <c r="Q194" s="89"/>
-      <c r="R194" s="89"/>
-      <c r="S194" s="89"/>
-      <c r="T194" s="89"/>
-      <c r="U194" s="89"/>
-      <c r="V194" s="89"/>
-      <c r="W194" s="89"/>
-      <c r="X194" s="89"/>
-      <c r="Y194" s="89"/>
-      <c r="Z194" s="89"/>
+      <c r="K194" s="91"/>
+      <c r="L194" s="91"/>
+      <c r="M194" s="91"/>
+      <c r="N194" s="91"/>
+      <c r="O194" s="91"/>
+      <c r="P194" s="91"/>
+      <c r="Q194" s="91"/>
+      <c r="R194" s="91"/>
+      <c r="S194" s="91"/>
+      <c r="T194" s="91"/>
+      <c r="U194" s="91"/>
+      <c r="V194" s="91"/>
+      <c r="W194" s="91"/>
+      <c r="X194" s="91"/>
+      <c r="Y194" s="91"/>
+      <c r="Z194" s="91"/>
     </row>
     <row r="195" spans="10:27" x14ac:dyDescent="0.25">
       <c r="J195" s="1" t="s">
@@ -24916,8 +25616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F51141-AFE5-4CF4-B1B8-9A54C6709083}">
   <dimension ref="B4:AG292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E287" sqref="E287"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -37317,6 +38017,92 @@
         <v>15900</v>
       </c>
     </row>
+    <row r="286" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="F286" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="G286" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="H286" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="I286" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="J286" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="K286" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="L286" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="M286" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="N286" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="O286" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="P286" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q286" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="R286" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="S286" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="T286" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="U286" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="V286" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="W286" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="X286" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y286" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z286" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA286" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB286" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC286" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD286" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE286" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF286" s="74" t="s">
+        <v>366</v>
+      </c>
+      <c r="AG286" s="74" t="s">
+        <v>145</v>
+      </c>
+    </row>
     <row r="287" spans="2:33" x14ac:dyDescent="0.25">
       <c r="E287" s="71" t="s">
         <v>545</v>
@@ -37438,88 +38224,88 @@
       <c r="E289" s="71" t="s">
         <v>546</v>
       </c>
-      <c r="F289" s="91">
+      <c r="F289" s="86">
         <v>334000</v>
       </c>
-      <c r="G289" s="91">
+      <c r="G289" s="86">
         <v>430000</v>
       </c>
-      <c r="H289" s="91">
+      <c r="H289" s="86">
         <v>430000</v>
       </c>
-      <c r="I289" s="91">
+      <c r="I289" s="86">
         <v>430000</v>
       </c>
-      <c r="J289" s="91">
+      <c r="J289" s="86">
         <v>430000</v>
       </c>
-      <c r="K289" s="91">
+      <c r="K289" s="86">
         <v>1075000</v>
       </c>
-      <c r="L289" s="91">
+      <c r="L289" s="86">
         <v>1075000</v>
       </c>
-      <c r="M289" s="91">
+      <c r="M289" s="86">
         <v>1075000</v>
       </c>
-      <c r="N289" s="91">
+      <c r="N289" s="86">
         <v>1075000</v>
       </c>
-      <c r="O289" s="91">
+      <c r="O289" s="86">
         <v>2811100</v>
       </c>
-      <c r="P289" s="91">
+      <c r="P289" s="86">
         <v>2943000</v>
       </c>
-      <c r="Q289" s="91">
+      <c r="Q289" s="86">
         <v>3103500</v>
       </c>
-      <c r="R289" s="91">
+      <c r="R289" s="86">
         <v>3103500</v>
       </c>
-      <c r="S289" s="91">
+      <c r="S289" s="86">
         <v>3103500</v>
       </c>
-      <c r="T289" s="91">
+      <c r="T289" s="86">
         <v>8009100</v>
       </c>
-      <c r="U289" s="91">
+      <c r="U289" s="86">
         <v>7988000</v>
       </c>
-      <c r="V289" s="91">
+      <c r="V289" s="86">
         <v>8373900</v>
       </c>
-      <c r="W289" s="91">
+      <c r="W289" s="86">
         <v>8707800</v>
       </c>
-      <c r="X289" s="91">
+      <c r="X289" s="86">
         <v>8850900</v>
       </c>
-      <c r="Y289" s="91">
+      <c r="Y289" s="86">
         <v>7118400</v>
       </c>
-      <c r="Z289" s="91">
+      <c r="Z289" s="86">
         <v>6652500</v>
       </c>
-      <c r="AA289" s="91">
+      <c r="AA289" s="86">
         <v>6396000</v>
       </c>
-      <c r="AB289" s="91">
+      <c r="AB289" s="86">
         <v>6396000</v>
       </c>
-      <c r="AC289" s="91">
+      <c r="AC289" s="86">
         <v>6396000</v>
       </c>
-      <c r="AD289" s="91">
+      <c r="AD289" s="86">
         <v>1300800</v>
       </c>
-      <c r="AE289" s="91">
+      <c r="AE289" s="86">
         <v>862900</v>
       </c>
-      <c r="AF289" s="91">
+      <c r="AF289" s="86">
         <v>477000</v>
       </c>
-      <c r="AG289" s="91">
+      <c r="AG289" s="86">
         <v>143100</v>
       </c>
     </row>
@@ -37662,8 +38448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A473BC-C0A6-4B82-AFF1-1810EBBEDE4D}">
   <dimension ref="A1:AK173"/>
   <sheetViews>
-    <sheetView topLeftCell="W163" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173:AH173"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -37676,45 +38462,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
+      <c r="A1" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -37767,19 +38553,19 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="90" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -37880,11 +38666,11 @@
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="6" t="s">
         <v>37</v>
       </c>
@@ -37998,7 +38784,7 @@
       <c r="E10" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="86">
         <v>9921600</v>
       </c>
       <c r="G10" s="9">
@@ -38111,7 +38897,7 @@
       <c r="E11" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="86">
         <v>9921600</v>
       </c>
       <c r="G11" s="9">
@@ -38224,7 +39010,7 @@
       <c r="E12" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="86">
         <v>384000</v>
       </c>
       <c r="G12" s="9">
@@ -38337,7 +39123,7 @@
       <c r="E13" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="F13" s="91">
+      <c r="F13" s="86">
         <v>384000</v>
       </c>
       <c r="G13" s="9">
@@ -38450,7 +39236,7 @@
       <c r="E14" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="F14" s="91">
+      <c r="F14" s="86">
         <v>3234000</v>
       </c>
       <c r="G14" s="9">
@@ -38563,7 +39349,7 @@
       <c r="E15" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="F15" s="91">
+      <c r="F15" s="86">
         <v>3287500</v>
       </c>
       <c r="G15" s="9">
@@ -38676,7 +39462,7 @@
       <c r="E16" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="F16" s="91">
+      <c r="F16" s="86">
         <v>2983600</v>
       </c>
       <c r="G16" s="9">
@@ -38789,7 +39575,7 @@
       <c r="E17" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="F17" s="91">
+      <c r="F17" s="86">
         <v>2983600</v>
       </c>
       <c r="G17" s="9">
@@ -38902,7 +39688,7 @@
       <c r="E18" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="F18" s="91">
+      <c r="F18" s="86">
         <v>1048600</v>
       </c>
       <c r="G18" s="9">
@@ -39015,7 +39801,7 @@
       <c r="E19" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="F19" s="91">
+      <c r="F19" s="86">
         <v>3287500</v>
       </c>
       <c r="G19" s="9">
@@ -39128,7 +39914,7 @@
       <c r="E20" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="F20" s="91">
+      <c r="F20" s="86">
         <v>1528000</v>
       </c>
       <c r="G20" s="9">
@@ -39241,7 +40027,7 @@
       <c r="E21" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="F21" s="91">
+      <c r="F21" s="86">
         <v>315000</v>
       </c>
       <c r="G21" s="9">
@@ -39354,7 +40140,7 @@
       <c r="E22" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="F22" s="91">
+      <c r="F22" s="86">
         <v>315000</v>
       </c>
       <c r="G22" s="9">
@@ -39467,7 +40253,7 @@
       <c r="E23" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="F23" s="91">
+      <c r="F23" s="86">
         <v>315000</v>
       </c>
       <c r="G23" s="9">
@@ -39580,7 +40366,7 @@
       <c r="E24" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="F24" s="91">
+      <c r="F24" s="86">
         <v>2830000</v>
       </c>
       <c r="G24" s="9">
@@ -39693,7 +40479,7 @@
       <c r="E25" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="F25" s="91">
+      <c r="F25" s="86">
         <v>315000</v>
       </c>
       <c r="G25" s="9">
@@ -39806,7 +40592,7 @@
       <c r="E26" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="F26" s="91">
+      <c r="F26" s="86">
         <v>315000</v>
       </c>
       <c r="G26" s="9">
@@ -39919,7 +40705,7 @@
       <c r="E27" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="F27" s="91">
+      <c r="F27" s="86">
         <v>315000</v>
       </c>
       <c r="G27" s="9">
@@ -40032,7 +40818,7 @@
       <c r="E28" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="F28" s="91">
+      <c r="F28" s="86">
         <v>315000</v>
       </c>
       <c r="G28" s="9">
@@ -40145,7 +40931,7 @@
       <c r="E29" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="F29" s="91">
+      <c r="F29" s="86">
         <v>2424000</v>
       </c>
       <c r="G29" s="9">
@@ -40258,7 +41044,7 @@
       <c r="E30" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="F30" s="91">
+      <c r="F30" s="86">
         <v>315000</v>
       </c>
       <c r="G30" s="9">
@@ -40371,7 +41157,7 @@
       <c r="E31" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="F31" s="91">
+      <c r="F31" s="86">
         <v>2830000</v>
       </c>
       <c r="G31" s="9">
@@ -40484,7 +41270,7 @@
       <c r="E32" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="F32" s="91">
+      <c r="F32" s="86">
         <v>908500</v>
       </c>
       <c r="G32" s="9">
@@ -40597,7 +41383,7 @@
       <c r="E33" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="F33" s="91">
+      <c r="F33" s="86">
         <v>315000</v>
       </c>
       <c r="G33" s="9">
@@ -40710,7 +41496,7 @@
       <c r="E34" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="F34" s="91">
+      <c r="F34" s="86">
         <v>908500</v>
       </c>
       <c r="G34" s="9">
@@ -40823,7 +41609,7 @@
       <c r="E35" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="F35" s="91">
+      <c r="F35" s="86">
         <v>2152000</v>
       </c>
       <c r="G35" s="9">
@@ -40936,7 +41722,7 @@
       <c r="E36" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="F36" s="91">
+      <c r="F36" s="86">
         <v>330000</v>
       </c>
       <c r="G36" s="9">
@@ -41049,7 +41835,7 @@
       <c r="E37" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="F37" s="91">
+      <c r="F37" s="86">
         <v>2686000</v>
       </c>
       <c r="G37" s="9">
@@ -41162,7 +41948,7 @@
       <c r="E38" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="F38" s="91">
+      <c r="F38" s="86">
         <v>850000</v>
       </c>
       <c r="G38" s="9">
@@ -41275,7 +42061,7 @@
       <c r="E39" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="F39" s="91">
+      <c r="F39" s="86">
         <v>330000</v>
       </c>
       <c r="G39" s="9">
@@ -41388,7 +42174,7 @@
       <c r="E40" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="F40" s="91">
+      <c r="F40" s="86">
         <v>330000</v>
       </c>
       <c r="G40" s="9">
@@ -41501,7 +42287,7 @@
       <c r="E41" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="F41" s="91">
+      <c r="F41" s="86">
         <v>330000</v>
       </c>
       <c r="G41" s="9">
@@ -41614,7 +42400,7 @@
       <c r="E42" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="F42" s="91">
+      <c r="F42" s="86">
         <v>1384000</v>
       </c>
       <c r="G42" s="9">
@@ -41727,7 +42513,7 @@
       <c r="E43" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="F43" s="91">
+      <c r="F43" s="86">
         <v>1384000</v>
       </c>
       <c r="G43" s="9">
@@ -41840,7 +42626,7 @@
       <c r="E44" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="F44" s="91">
+      <c r="F44" s="86">
         <v>330000</v>
       </c>
       <c r="G44" s="9">
@@ -41953,7 +42739,7 @@
       <c r="E45" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="F45" s="91">
+      <c r="F45" s="86">
         <v>330000</v>
       </c>
       <c r="G45" s="9">
@@ -42066,7 +42852,7 @@
       <c r="E46" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="F46" s="91">
+      <c r="F46" s="86">
         <v>1384000</v>
       </c>
       <c r="G46" s="9">
@@ -42179,7 +42965,7 @@
       <c r="E47" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="F47" s="91">
+      <c r="F47" s="86">
         <v>1384000</v>
       </c>
       <c r="G47" s="9">
@@ -42292,7 +43078,7 @@
       <c r="E48" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="F48" s="91">
+      <c r="F48" s="86">
         <v>330000</v>
       </c>
       <c r="G48" s="9">
@@ -42405,7 +43191,7 @@
       <c r="E49" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="F49" s="91">
+      <c r="F49" s="86">
         <v>330000</v>
       </c>
       <c r="G49" s="9">
@@ -42518,7 +43304,7 @@
       <c r="E50" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="F50" s="91">
+      <c r="F50" s="86">
         <v>850000</v>
       </c>
       <c r="G50" s="9">
@@ -42631,7 +43417,7 @@
       <c r="E51" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F51" s="91">
+      <c r="F51" s="86">
         <v>850000</v>
       </c>
       <c r="G51" s="9">
@@ -42744,7 +43530,7 @@
       <c r="E52" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F52" s="91">
+      <c r="F52" s="86">
         <v>330000</v>
       </c>
       <c r="G52" s="9">
@@ -42857,7 +43643,7 @@
       <c r="E53" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F53" s="91">
+      <c r="F53" s="86">
         <v>330000</v>
       </c>
       <c r="G53" s="9">
@@ -42970,7 +43756,7 @@
       <c r="E54" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F54" s="91">
+      <c r="F54" s="86">
         <v>330000</v>
       </c>
       <c r="G54" s="9">
@@ -43083,7 +43869,7 @@
       <c r="E55" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F55" s="91">
+      <c r="F55" s="86">
         <v>850000</v>
       </c>
       <c r="G55" s="9">
@@ -43196,7 +43982,7 @@
       <c r="E56" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="F56" s="91">
+      <c r="F56" s="86">
         <v>850000</v>
       </c>
       <c r="G56" s="9">
@@ -43309,7 +44095,7 @@
       <c r="E57" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="F57" s="91">
+      <c r="F57" s="86">
         <v>850000</v>
       </c>
       <c r="G57" s="9">
@@ -43422,7 +44208,7 @@
       <c r="E58" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="F58" s="91">
+      <c r="F58" s="86">
         <v>330000</v>
       </c>
       <c r="G58" s="9">
@@ -43535,7 +44321,7 @@
       <c r="E59" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="F59" s="91">
+      <c r="F59" s="86">
         <v>850000</v>
       </c>
       <c r="G59" s="9">
@@ -43648,7 +44434,7 @@
       <c r="E60" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="F60" s="91">
+      <c r="F60" s="86">
         <v>330000</v>
       </c>
       <c r="G60" s="9">
@@ -43761,7 +44547,7 @@
       <c r="E61" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="F61" s="91">
+      <c r="F61" s="86">
         <v>330000</v>
       </c>
       <c r="G61" s="9">
@@ -43874,7 +44660,7 @@
       <c r="E62" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="F62" s="91">
+      <c r="F62" s="86">
         <v>850000</v>
       </c>
       <c r="G62" s="9">
@@ -43987,7 +44773,7 @@
       <c r="E63" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="F63" s="91">
+      <c r="F63" s="86">
         <v>850000</v>
       </c>
       <c r="G63" s="9">
@@ -44100,7 +44886,7 @@
       <c r="E64" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="F64" s="91">
+      <c r="F64" s="86">
         <v>330000</v>
       </c>
       <c r="G64" s="9">
@@ -44213,7 +44999,7 @@
       <c r="E65" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="F65" s="91">
+      <c r="F65" s="86">
         <v>850000</v>
       </c>
       <c r="G65" s="9">
@@ -44326,7 +45112,7 @@
       <c r="E66" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="F66" s="91">
+      <c r="F66" s="86">
         <v>330000</v>
       </c>
       <c r="G66" s="9">
@@ -44439,7 +45225,7 @@
       <c r="E67" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="F67" s="91">
+      <c r="F67" s="86">
         <v>850000</v>
       </c>
       <c r="G67" s="9">
@@ -44552,7 +45338,7 @@
       <c r="E68" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="F68" s="91">
+      <c r="F68" s="86">
         <v>330000</v>
       </c>
       <c r="G68" s="9">
@@ -44665,7 +45451,7 @@
       <c r="E69" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="F69" s="91">
+      <c r="F69" s="86">
         <v>850000</v>
       </c>
       <c r="G69" s="9">
@@ -44778,7 +45564,7 @@
       <c r="E70" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="F70" s="91">
+      <c r="F70" s="86">
         <v>330000</v>
       </c>
       <c r="G70" s="9">
@@ -44891,7 +45677,7 @@
       <c r="E71" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="F71" s="91">
+      <c r="F71" s="86">
         <v>330000</v>
       </c>
       <c r="G71" s="9">
@@ -45004,7 +45790,7 @@
       <c r="E72" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="F72" s="91">
+      <c r="F72" s="86">
         <v>330000</v>
       </c>
       <c r="G72" s="9">
@@ -45117,7 +45903,7 @@
       <c r="E73" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="F73" s="91">
+      <c r="F73" s="86">
         <v>330000</v>
       </c>
       <c r="G73" s="9">
@@ -45230,7 +46016,7 @@
       <c r="E74" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="F74" s="91">
+      <c r="F74" s="86">
         <v>330000</v>
       </c>
       <c r="G74" s="9">
@@ -45343,7 +46129,7 @@
       <c r="E75" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="F75" s="91">
+      <c r="F75" s="86">
         <v>330000</v>
       </c>
       <c r="G75" s="9">
@@ -45456,7 +46242,7 @@
       <c r="E76" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="F76" s="91">
+      <c r="F76" s="86">
         <v>330000</v>
       </c>
       <c r="G76" s="9">
@@ -45569,7 +46355,7 @@
       <c r="E77" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="F77" s="91">
+      <c r="F77" s="86">
         <v>330000</v>
       </c>
       <c r="G77" s="9">
@@ -45682,7 +46468,7 @@
       <c r="E78" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="F78" s="91">
+      <c r="F78" s="86">
         <v>330000</v>
       </c>
       <c r="G78" s="9">
@@ -45795,7 +46581,7 @@
       <c r="E79" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="F79" s="91">
+      <c r="F79" s="86">
         <v>330000</v>
       </c>
       <c r="G79" s="9">
@@ -45908,7 +46694,7 @@
       <c r="E80" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="F80" s="91">
+      <c r="F80" s="86">
         <v>159000</v>
       </c>
       <c r="G80" s="9">
@@ -46021,7 +46807,7 @@
       <c r="E81" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="F81" s="91">
+      <c r="F81" s="86">
         <v>159000</v>
       </c>
       <c r="G81" s="9">
@@ -46134,7 +46920,7 @@
       <c r="E82" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="F82" s="91">
+      <c r="F82" s="86">
         <v>159000</v>
       </c>
       <c r="G82" s="9">
@@ -46247,7 +47033,7 @@
       <c r="E83" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="F83" s="91">
+      <c r="F83" s="86">
         <v>679000</v>
       </c>
       <c r="G83" s="9">
@@ -46360,7 +47146,7 @@
       <c r="E84" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="F84" s="91">
+      <c r="F84" s="86">
         <v>159000</v>
       </c>
       <c r="G84" s="9">
@@ -46473,7 +47259,7 @@
       <c r="E85" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="F85" s="91">
+      <c r="F85" s="86">
         <v>159000</v>
       </c>
       <c r="G85" s="9">
@@ -46586,7 +47372,7 @@
       <c r="E86" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="F86" s="91">
+      <c r="F86" s="86">
         <v>159000</v>
       </c>
       <c r="G86" s="9">
@@ -46699,7 +47485,7 @@
       <c r="E87" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="F87" s="91">
+      <c r="F87" s="86">
         <v>159000</v>
       </c>
       <c r="G87" s="9">
@@ -46812,7 +47598,7 @@
       <c r="E88" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="F88" s="91">
+      <c r="F88" s="86">
         <v>159000</v>
       </c>
       <c r="G88" s="9">
@@ -46925,7 +47711,7 @@
       <c r="E89" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="F89" s="91">
+      <c r="F89" s="86">
         <v>159000</v>
       </c>
       <c r="G89" s="9">
@@ -47038,7 +47824,7 @@
       <c r="E90" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="F90" s="91">
+      <c r="F90" s="86">
         <v>159000</v>
       </c>
       <c r="G90" s="9">
@@ -47151,7 +47937,7 @@
       <c r="E91" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="F91" s="91">
+      <c r="F91" s="86">
         <v>159000</v>
       </c>
       <c r="G91" s="9">
@@ -47264,7 +48050,7 @@
       <c r="E92" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="F92" s="91">
+      <c r="F92" s="86">
         <v>159000</v>
       </c>
       <c r="G92" s="9">
@@ -47377,7 +48163,7 @@
       <c r="E93" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="F93" s="91">
+      <c r="F93" s="86">
         <v>159000</v>
       </c>
       <c r="G93" s="9">
@@ -47490,7 +48276,7 @@
       <c r="E94" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="F94" s="91">
+      <c r="F94" s="86">
         <v>159000</v>
       </c>
       <c r="G94" s="9">
@@ -47603,7 +48389,7 @@
       <c r="E95" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="F95" s="91">
+      <c r="F95" s="86">
         <v>159000</v>
       </c>
       <c r="G95" s="9">
@@ -47716,7 +48502,7 @@
       <c r="E96" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F96" s="91">
+      <c r="F96" s="86">
         <v>159000</v>
       </c>
       <c r="G96" s="9">
@@ -47829,7 +48615,7 @@
       <c r="E97" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F97" s="91">
+      <c r="F97" s="86">
         <v>679000</v>
       </c>
       <c r="G97" s="9">
@@ -47942,7 +48728,7 @@
       <c r="E98" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F98" s="91">
+      <c r="F98" s="86">
         <v>679000</v>
       </c>
       <c r="G98" s="9">
@@ -48055,7 +48841,7 @@
       <c r="E99" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F99" s="91">
+      <c r="F99" s="86">
         <v>159000</v>
       </c>
       <c r="G99" s="9">
@@ -48168,7 +48954,7 @@
       <c r="E100" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F100" s="91">
+      <c r="F100" s="86">
         <v>159000</v>
       </c>
       <c r="G100" s="9">
@@ -48281,7 +49067,7 @@
       <c r="E101" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F101" s="91">
+      <c r="F101" s="86">
         <v>679000</v>
       </c>
       <c r="G101" s="9">
@@ -48394,7 +49180,7 @@
       <c r="E102" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="F102" s="91">
+      <c r="F102" s="86">
         <v>159000</v>
       </c>
       <c r="G102" s="9">
@@ -48507,7 +49293,7 @@
       <c r="E103" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="F103" s="91">
+      <c r="F103" s="86">
         <v>159000</v>
       </c>
       <c r="G103" s="9">
@@ -48620,7 +49406,7 @@
       <c r="E104" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="F104" s="91">
+      <c r="F104" s="86">
         <v>159000</v>
       </c>
       <c r="G104" s="9">
@@ -48733,7 +49519,7 @@
       <c r="E105" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="F105" s="91">
+      <c r="F105" s="86">
         <v>159000</v>
       </c>
       <c r="G105" s="9">
@@ -48846,7 +49632,7 @@
       <c r="E106" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="F106" s="91">
+      <c r="F106" s="86">
         <v>159000</v>
       </c>
       <c r="G106" s="9">
@@ -48959,7 +49745,7 @@
       <c r="E107" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="F107" s="91">
+      <c r="F107" s="86">
         <v>159000</v>
       </c>
       <c r="G107" s="9">
@@ -49072,7 +49858,7 @@
       <c r="E108" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="F108" s="91">
+      <c r="F108" s="86">
         <v>679000</v>
       </c>
       <c r="G108" s="9">
@@ -49185,7 +49971,7 @@
       <c r="E109" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="F109" s="91">
+      <c r="F109" s="86">
         <v>159000</v>
       </c>
       <c r="G109" s="9">
@@ -49298,7 +50084,7 @@
       <c r="E110" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="F110" s="91">
+      <c r="F110" s="86">
         <v>159000</v>
       </c>
       <c r="G110" s="9">
@@ -49411,7 +50197,7 @@
       <c r="E111" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="F111" s="91">
+      <c r="F111" s="86">
         <v>159000</v>
       </c>
       <c r="G111" s="9">
@@ -49524,7 +50310,7 @@
       <c r="E112" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="F112" s="91">
+      <c r="F112" s="86">
         <v>159000</v>
       </c>
       <c r="G112" s="9">
@@ -49637,7 +50423,7 @@
       <c r="E113" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="F113" s="91">
+      <c r="F113" s="86">
         <v>159000</v>
       </c>
       <c r="G113" s="9">
@@ -49750,7 +50536,7 @@
       <c r="E114" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="F114" s="91">
+      <c r="F114" s="86">
         <v>159000</v>
       </c>
       <c r="G114" s="9">
@@ -49863,7 +50649,7 @@
       <c r="E115" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="F115" s="91">
+      <c r="F115" s="86">
         <v>159000</v>
       </c>
       <c r="G115" s="9">
@@ -49976,7 +50762,7 @@
       <c r="E116" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="F116" s="91">
+      <c r="F116" s="86">
         <v>159000</v>
       </c>
       <c r="G116" s="9">
@@ -50089,7 +50875,7 @@
       <c r="E117" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="F117" s="91">
+      <c r="F117" s="86">
         <v>159000</v>
       </c>
       <c r="G117" s="9">
@@ -50202,7 +50988,7 @@
       <c r="E118" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="F118" s="91">
+      <c r="F118" s="86">
         <v>159000</v>
       </c>
       <c r="G118" s="9">
@@ -50315,7 +51101,7 @@
       <c r="E119" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="F119" s="91">
+      <c r="F119" s="86">
         <v>159000</v>
       </c>
       <c r="G119" s="9">
@@ -50428,7 +51214,7 @@
       <c r="E120" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="F120" s="91">
+      <c r="F120" s="86">
         <v>159000</v>
       </c>
       <c r="G120" s="9">
@@ -50541,7 +51327,7 @@
       <c r="E121" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="F121" s="91">
+      <c r="F121" s="86">
         <v>159000</v>
       </c>
       <c r="G121" s="9">
@@ -50654,7 +51440,7 @@
       <c r="E122" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="F122" s="91">
+      <c r="F122" s="86">
         <v>159000</v>
       </c>
       <c r="G122" s="9">
@@ -50767,7 +51553,7 @@
       <c r="E123" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="F123" s="91">
+      <c r="F123" s="86">
         <v>159000</v>
       </c>
       <c r="G123" s="9">
@@ -50880,7 +51666,7 @@
       <c r="E124" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="F124" s="91">
+      <c r="F124" s="86">
         <v>159000</v>
       </c>
       <c r="G124" s="9">
@@ -50993,7 +51779,7 @@
       <c r="E125" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="F125" s="91">
+      <c r="F125" s="86">
         <v>159000</v>
       </c>
       <c r="G125" s="9">
@@ -51106,7 +51892,7 @@
       <c r="E126" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="F126" s="91">
+      <c r="F126" s="86">
         <v>679000</v>
       </c>
       <c r="G126" s="9">
@@ -51219,7 +52005,7 @@
       <c r="E127" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="F127" s="91">
+      <c r="F127" s="86">
         <v>159000</v>
       </c>
       <c r="G127" s="9">
@@ -51332,7 +52118,7 @@
       <c r="E128" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="F128" s="91">
+      <c r="F128" s="86">
         <v>159000</v>
       </c>
       <c r="G128" s="9">
@@ -51445,7 +52231,7 @@
       <c r="E129" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="F129" s="91">
+      <c r="F129" s="86">
         <v>159000</v>
       </c>
       <c r="G129" s="9">
@@ -51558,7 +52344,7 @@
       <c r="E130" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F130" s="91">
+      <c r="F130" s="86">
         <v>159000</v>
       </c>
       <c r="G130" s="9">
@@ -51671,7 +52457,7 @@
       <c r="E131" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="F131" s="91">
+      <c r="F131" s="86">
         <v>159000</v>
       </c>
       <c r="G131" s="9">
@@ -51784,7 +52570,7 @@
       <c r="E132" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="F132" s="91">
+      <c r="F132" s="86">
         <v>159000</v>
       </c>
       <c r="G132" s="9">
@@ -51897,7 +52683,7 @@
       <c r="E133" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="F133" s="91">
+      <c r="F133" s="86">
         <v>159000</v>
       </c>
       <c r="G133" s="9">
@@ -52010,7 +52796,7 @@
       <c r="E134" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="F134" s="91">
+      <c r="F134" s="86">
         <v>159000</v>
       </c>
       <c r="G134" s="9">
@@ -52123,7 +52909,7 @@
       <c r="E135" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="F135" s="91">
+      <c r="F135" s="86">
         <v>159000</v>
       </c>
       <c r="G135" s="9">
@@ -52236,7 +53022,7 @@
       <c r="E136" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="F136" s="91">
+      <c r="F136" s="86">
         <v>159000</v>
       </c>
       <c r="G136" s="9">
@@ -52349,7 +53135,7 @@
       <c r="E137" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="F137" s="91">
+      <c r="F137" s="86">
         <v>159000</v>
       </c>
       <c r="G137" s="9">
@@ -52462,7 +53248,7 @@
       <c r="E138" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="F138" s="91">
+      <c r="F138" s="86">
         <v>159000</v>
       </c>
       <c r="G138" s="9">
@@ -52575,7 +53361,7 @@
       <c r="E139" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="F139" s="91">
+      <c r="F139" s="86">
         <v>159000</v>
       </c>
       <c r="G139" s="9">
@@ -52688,7 +53474,7 @@
       <c r="E140" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="F140" s="91">
+      <c r="F140" s="86">
         <v>159000</v>
       </c>
       <c r="G140" s="9">
@@ -52801,7 +53587,7 @@
       <c r="E141" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="F141" s="91">
+      <c r="F141" s="86">
         <v>159000</v>
       </c>
       <c r="G141" s="9">
@@ -52914,7 +53700,7 @@
       <c r="E142" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="F142" s="91">
+      <c r="F142" s="86">
         <v>159000</v>
       </c>
       <c r="G142" s="9">
@@ -53027,7 +53813,7 @@
       <c r="E143" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="F143" s="91">
+      <c r="F143" s="86">
         <v>159000</v>
       </c>
       <c r="G143" s="9">
@@ -53140,7 +53926,7 @@
       <c r="E144" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="F144" s="91">
+      <c r="F144" s="86">
         <v>159000</v>
       </c>
       <c r="G144" s="9">
@@ -53253,7 +54039,7 @@
       <c r="E145" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="F145" s="91">
+      <c r="F145" s="86">
         <v>159000</v>
       </c>
       <c r="G145" s="9">
@@ -53366,7 +54152,7 @@
       <c r="E146" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="F146" s="91">
+      <c r="F146" s="86">
         <v>159000</v>
       </c>
       <c r="G146" s="9">
@@ -53479,7 +54265,7 @@
       <c r="E147" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="F147" s="91">
+      <c r="F147" s="86">
         <v>159000</v>
       </c>
       <c r="G147" s="9">
@@ -53592,7 +54378,7 @@
       <c r="E148" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="F148" s="91">
+      <c r="F148" s="86">
         <v>159000</v>
       </c>
       <c r="G148" s="9">
@@ -53705,7 +54491,7 @@
       <c r="E149" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="F149" s="91">
+      <c r="F149" s="86">
         <v>159000</v>
       </c>
       <c r="G149" s="9">
@@ -53818,7 +54604,7 @@
       <c r="E150" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="F150" s="91">
+      <c r="F150" s="86">
         <v>159000</v>
       </c>
       <c r="G150" s="9">
@@ -53931,7 +54717,7 @@
       <c r="E151" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="F151" s="91">
+      <c r="F151" s="86">
         <v>159000</v>
       </c>
       <c r="G151" s="9">
@@ -54044,7 +54830,7 @@
       <c r="E152" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="F152" s="91">
+      <c r="F152" s="86">
         <v>159000</v>
       </c>
       <c r="G152" s="9">
@@ -54157,7 +54943,7 @@
       <c r="E153" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="F153" s="91">
+      <c r="F153" s="86">
         <v>159000</v>
       </c>
       <c r="G153" s="9">
@@ -54270,7 +55056,7 @@
       <c r="E154" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="F154" s="91">
+      <c r="F154" s="86">
         <v>159000</v>
       </c>
       <c r="G154" s="9">
@@ -54383,7 +55169,7 @@
       <c r="E155" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="F155" s="91">
+      <c r="F155" s="86">
         <v>159000</v>
       </c>
       <c r="G155" s="9">
@@ -54496,7 +55282,7 @@
       <c r="E156" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="F156" s="91">
+      <c r="F156" s="86">
         <v>159000</v>
       </c>
       <c r="G156" s="9">
@@ -54609,7 +55395,7 @@
       <c r="E157" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="F157" s="91">
+      <c r="F157" s="86">
         <v>159000</v>
       </c>
       <c r="G157" s="9">
@@ -54722,7 +55508,7 @@
       <c r="E158" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="F158" s="91">
+      <c r="F158" s="86">
         <v>159000</v>
       </c>
       <c r="G158" s="9">
@@ -54835,7 +55621,7 @@
       <c r="E159" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="F159" s="91">
+      <c r="F159" s="86">
         <v>159000</v>
       </c>
       <c r="G159" s="9">
@@ -54948,7 +55734,7 @@
       <c r="E160" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="F160" s="91">
+      <c r="F160" s="86">
         <v>159000</v>
       </c>
       <c r="G160" s="9">
@@ -55061,7 +55847,7 @@
       <c r="E161" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="F161" s="91">
+      <c r="F161" s="86">
         <v>159000</v>
       </c>
       <c r="G161" s="9">
@@ -55174,7 +55960,7 @@
       <c r="E162" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="F162" s="91">
+      <c r="F162" s="86">
         <v>159000</v>
       </c>
       <c r="G162" s="9">
@@ -55287,7 +56073,7 @@
       <c r="E163" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="F163" s="91">
+      <c r="F163" s="86">
         <v>159000</v>
       </c>
       <c r="G163" s="9">
@@ -55400,7 +56186,7 @@
       <c r="E164" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="F164" s="91">
+      <c r="F164" s="86">
         <v>159000</v>
       </c>
       <c r="G164" s="9">
@@ -55513,7 +56299,7 @@
       <c r="E165" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="F165" s="91">
+      <c r="F165" s="86">
         <v>159000</v>
       </c>
       <c r="G165" s="9">
@@ -55626,7 +56412,7 @@
       <c r="E166" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="F166" s="91">
+      <c r="F166" s="86">
         <v>159000</v>
       </c>
       <c r="G166" s="9">
@@ -55739,7 +56525,7 @@
       <c r="E167" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="F167" s="91">
+      <c r="F167" s="86">
         <v>159000</v>
       </c>
       <c r="G167" s="9">
@@ -55852,7 +56638,7 @@
       <c r="E168" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="F168" s="91">
+      <c r="F168" s="86">
         <v>159000</v>
       </c>
       <c r="G168" s="9">
@@ -55965,7 +56751,7 @@
       <c r="E169" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="F169" s="91">
+      <c r="F169" s="86">
         <v>159000</v>
       </c>
       <c r="G169" s="9">
@@ -56078,7 +56864,7 @@
       <c r="E170" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="F170" s="91">
+      <c r="F170" s="86">
         <v>159000</v>
       </c>
       <c r="G170" s="9">
@@ -56191,7 +56977,7 @@
       <c r="E171" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="F171" s="91">
+      <c r="F171" s="86">
         <v>159000</v>
       </c>
       <c r="G171" s="9">
@@ -56304,7 +57090,7 @@
       <c r="E172" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="F172" s="91">
+      <c r="F172" s="86">
         <v>159000</v>
       </c>
       <c r="G172" s="9">
@@ -56402,115 +57188,115 @@
       </c>
     </row>
     <row r="173" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A173" s="92" t="s">
+      <c r="A173" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B173" s="92" t="s">
+      <c r="B173" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C173" s="92" t="s">
+      <c r="C173" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D173" s="92" t="s">
+      <c r="D173" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="E173" s="92" t="s">
+      <c r="E173" s="87" t="s">
         <v>371</v>
       </c>
-      <c r="F173" s="91">
+      <c r="F173" s="86">
         <v>99091000</v>
       </c>
-      <c r="G173" s="91">
+      <c r="G173" s="86">
         <v>334000</v>
       </c>
-      <c r="H173" s="91">
+      <c r="H173" s="86">
         <v>430000</v>
       </c>
-      <c r="I173" s="91">
+      <c r="I173" s="86">
         <v>430000</v>
       </c>
-      <c r="J173" s="91">
+      <c r="J173" s="86">
         <v>430000</v>
       </c>
-      <c r="K173" s="91">
+      <c r="K173" s="86">
         <v>430000</v>
       </c>
-      <c r="L173" s="91">
+      <c r="L173" s="86">
         <v>1075000</v>
       </c>
-      <c r="M173" s="91">
+      <c r="M173" s="86">
         <v>1075000</v>
       </c>
-      <c r="N173" s="91">
+      <c r="N173" s="86">
         <v>1075000</v>
       </c>
-      <c r="O173" s="91">
+      <c r="O173" s="86">
         <v>1075000</v>
       </c>
-      <c r="P173" s="91">
+      <c r="P173" s="86">
         <v>2811100</v>
       </c>
-      <c r="Q173" s="91">
+      <c r="Q173" s="86">
         <v>2943000</v>
       </c>
-      <c r="R173" s="91">
+      <c r="R173" s="86">
         <v>3103500</v>
       </c>
-      <c r="S173" s="91">
+      <c r="S173" s="86">
         <v>3103500</v>
       </c>
-      <c r="T173" s="91">
+      <c r="T173" s="86">
         <v>3103500</v>
       </c>
-      <c r="U173" s="91">
+      <c r="U173" s="86">
         <v>8009100</v>
       </c>
-      <c r="V173" s="91">
+      <c r="V173" s="86">
         <v>7988000</v>
       </c>
-      <c r="W173" s="91">
+      <c r="W173" s="86">
         <v>8373900</v>
       </c>
-      <c r="X173" s="91">
+      <c r="X173" s="86">
         <v>8707800</v>
       </c>
-      <c r="Y173" s="91">
+      <c r="Y173" s="86">
         <v>8850900</v>
       </c>
-      <c r="Z173" s="91">
+      <c r="Z173" s="86">
         <v>7118400</v>
       </c>
-      <c r="AA173" s="91">
+      <c r="AA173" s="86">
         <v>6652500</v>
       </c>
-      <c r="AB173" s="91">
+      <c r="AB173" s="86">
         <v>6396000</v>
       </c>
-      <c r="AC173" s="91">
+      <c r="AC173" s="86">
         <v>6396000</v>
       </c>
-      <c r="AD173" s="91">
+      <c r="AD173" s="86">
         <v>6396000</v>
       </c>
-      <c r="AE173" s="91">
+      <c r="AE173" s="86">
         <v>1300800</v>
       </c>
-      <c r="AF173" s="91">
+      <c r="AF173" s="86">
         <v>862900</v>
       </c>
-      <c r="AG173" s="91">
+      <c r="AG173" s="86">
         <v>477000</v>
       </c>
-      <c r="AH173" s="91">
+      <c r="AH173" s="86">
         <v>143100</v>
       </c>
-      <c r="AI173" s="91">
-        <v>0</v>
-      </c>
-      <c r="AJ173" s="91">
-        <v>0</v>
-      </c>
-      <c r="AK173" s="91">
+      <c r="AI173" s="86">
+        <v>0</v>
+      </c>
+      <c r="AJ173" s="86">
+        <v>0</v>
+      </c>
+      <c r="AK173" s="86">
         <v>0</v>
       </c>
     </row>
@@ -56527,4 +57313,924 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7006D4-6C07-476B-AA00-13A502BAC23C}">
+  <dimension ref="A8:AL73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.625" customWidth="1"/>
+    <col min="8" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" t="s">
+        <v>548</v>
+      </c>
+      <c r="X8" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>551</v>
+      </c>
+      <c r="G9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="93">
+        <v>24000</v>
+      </c>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93">
+        <v>24000</v>
+      </c>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93">
+        <v>24000</v>
+      </c>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93">
+        <v>24000</v>
+      </c>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93">
+        <v>24000</v>
+      </c>
+      <c r="W9" s="93">
+        <v>24000</v>
+      </c>
+      <c r="X9" s="93">
+        <v>24000</v>
+      </c>
+      <c r="Y9" s="93">
+        <v>24000</v>
+      </c>
+      <c r="Z9" s="93">
+        <v>24000</v>
+      </c>
+      <c r="AA9" s="93">
+        <v>24000</v>
+      </c>
+      <c r="AB9" s="93">
+        <v>24000</v>
+      </c>
+      <c r="AC9" s="93"/>
+    </row>
+    <row r="10" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>552</v>
+      </c>
+      <c r="G10" t="s">
+        <v>151</v>
+      </c>
+      <c r="W10" s="55">
+        <v>71400</v>
+      </c>
+      <c r="X10" s="55">
+        <v>71400</v>
+      </c>
+      <c r="Y10" s="55">
+        <v>71400</v>
+      </c>
+      <c r="Z10" s="55">
+        <v>71400</v>
+      </c>
+      <c r="AA10" s="55">
+        <v>71400</v>
+      </c>
+      <c r="AB10" s="55">
+        <v>71400</v>
+      </c>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55">
+        <v>71400</v>
+      </c>
+      <c r="AE10" s="55">
+        <v>71400</v>
+      </c>
+      <c r="AF10" s="55">
+        <v>71400</v>
+      </c>
+      <c r="AG10" s="55">
+        <v>71400</v>
+      </c>
+    </row>
+    <row r="11" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>553</v>
+      </c>
+      <c r="G11" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB11" s="55">
+        <v>228000</v>
+      </c>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55">
+        <v>228000</v>
+      </c>
+      <c r="AE11" s="55">
+        <v>228000</v>
+      </c>
+      <c r="AF11" s="55">
+        <v>228000</v>
+      </c>
+      <c r="AG11" s="55">
+        <v>228000</v>
+      </c>
+      <c r="AH11" s="55">
+        <v>228000</v>
+      </c>
+      <c r="AI11" s="55">
+        <v>228000</v>
+      </c>
+      <c r="AJ11" s="55">
+        <v>228000</v>
+      </c>
+      <c r="AK11" s="55">
+        <v>228000</v>
+      </c>
+      <c r="AL11" s="55">
+        <v>228000</v>
+      </c>
+    </row>
+    <row r="14" spans="6:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="100" t="s">
+        <v>548</v>
+      </c>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+    </row>
+    <row r="15" spans="6:38" x14ac:dyDescent="0.3">
+      <c r="F15" s="95" t="s">
+        <v>547</v>
+      </c>
+      <c r="G15" s="95" t="s">
+        <v>364</v>
+      </c>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="97" t="s">
+        <v>570</v>
+      </c>
+      <c r="L15" s="97" t="s">
+        <v>571</v>
+      </c>
+      <c r="M15" s="109" t="s">
+        <v>572</v>
+      </c>
+      <c r="N15" s="109" t="s">
+        <v>572</v>
+      </c>
+      <c r="O15" s="121" t="s">
+        <v>554</v>
+      </c>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="106" t="s">
+        <v>555</v>
+      </c>
+      <c r="R15" s="107"/>
+      <c r="S15" s="106" t="s">
+        <v>556</v>
+      </c>
+      <c r="T15" s="107"/>
+      <c r="U15" s="106" t="s">
+        <v>557</v>
+      </c>
+      <c r="V15" s="107"/>
+      <c r="W15" s="106" t="s">
+        <v>549</v>
+      </c>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="102" t="s">
+        <v>558</v>
+      </c>
+      <c r="Z15" s="97" t="s">
+        <v>559</v>
+      </c>
+      <c r="AA15" s="97" t="s">
+        <v>560</v>
+      </c>
+      <c r="AB15" s="111" t="s">
+        <v>550</v>
+      </c>
+      <c r="AC15" s="106" t="s">
+        <v>564</v>
+      </c>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="102"/>
+      <c r="AF15" s="97"/>
+      <c r="AG15" s="97"/>
+      <c r="AH15" s="97"/>
+      <c r="AI15" s="97"/>
+      <c r="AJ15" s="97"/>
+      <c r="AK15" s="97"/>
+    </row>
+    <row r="16" spans="6:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="98" t="s">
+        <v>561</v>
+      </c>
+      <c r="L16" s="98">
+        <v>24000</v>
+      </c>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="122" t="s">
+        <v>562</v>
+      </c>
+      <c r="P16" s="108">
+        <v>24000</v>
+      </c>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="108">
+        <v>24000</v>
+      </c>
+      <c r="S16" s="117"/>
+      <c r="T16" s="113">
+        <v>24000</v>
+      </c>
+      <c r="U16" s="116"/>
+      <c r="V16" s="113">
+        <v>24000</v>
+      </c>
+      <c r="W16" s="104" t="s">
+        <v>563</v>
+      </c>
+      <c r="X16" s="113">
+        <v>296500</v>
+      </c>
+      <c r="Y16" s="103">
+        <v>296500</v>
+      </c>
+      <c r="Z16" s="96">
+        <v>296500</v>
+      </c>
+      <c r="AA16" s="96">
+        <v>296500</v>
+      </c>
+      <c r="AB16" s="112">
+        <v>933700</v>
+      </c>
+      <c r="AC16" s="104" t="s">
+        <v>565</v>
+      </c>
+      <c r="AD16" s="113">
+        <v>909700</v>
+      </c>
+      <c r="AE16" s="103">
+        <v>909700</v>
+      </c>
+      <c r="AF16" s="96">
+        <v>909700</v>
+      </c>
+      <c r="AG16" s="96">
+        <v>909700</v>
+      </c>
+      <c r="AH16" s="96">
+        <v>909700</v>
+      </c>
+      <c r="AI16" s="96">
+        <v>637200</v>
+      </c>
+      <c r="AJ16" s="96">
+        <v>637200</v>
+      </c>
+      <c r="AK16" s="96">
+        <v>637200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F32" s="144" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="F33" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="110" t="s">
+        <v>576</v>
+      </c>
+      <c r="I33" s="115"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="110" t="s">
+        <v>548</v>
+      </c>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="110" t="s">
+        <v>554</v>
+      </c>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="115"/>
+      <c r="R33" s="105"/>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="F34" s="119" t="s">
+        <v>547</v>
+      </c>
+      <c r="G34" s="119" t="s">
+        <v>364</v>
+      </c>
+      <c r="H34" s="97" t="s">
+        <v>571</v>
+      </c>
+      <c r="I34" s="109" t="s">
+        <v>572</v>
+      </c>
+      <c r="J34" s="109" t="s">
+        <v>573</v>
+      </c>
+      <c r="K34" s="123" t="s">
+        <v>574</v>
+      </c>
+      <c r="L34" s="97" t="s">
+        <v>584</v>
+      </c>
+      <c r="M34" s="109" t="s">
+        <v>572</v>
+      </c>
+      <c r="N34" s="109" t="s">
+        <v>573</v>
+      </c>
+      <c r="O34" s="123" t="s">
+        <v>574</v>
+      </c>
+      <c r="P34" s="97" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q34" s="109" t="s">
+        <v>572</v>
+      </c>
+      <c r="R34" s="109" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="99" t="s">
+        <v>577</v>
+      </c>
+      <c r="I35" s="99" t="s">
+        <v>579</v>
+      </c>
+      <c r="J35" s="99" t="s">
+        <v>578</v>
+      </c>
+      <c r="K35" s="124" t="s">
+        <v>561</v>
+      </c>
+      <c r="L35" s="98">
+        <v>24000</v>
+      </c>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="124" t="s">
+        <v>561</v>
+      </c>
+      <c r="P35" s="98">
+        <v>24000</v>
+      </c>
+      <c r="Q35" s="98"/>
+      <c r="R35" s="98"/>
+    </row>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>575</v>
+      </c>
+      <c r="K36" s="94" t="s">
+        <v>569</v>
+      </c>
+      <c r="L36" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>566</v>
+      </c>
+      <c r="L37" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="145" t="s">
+        <v>590</v>
+      </c>
+      <c r="G40" s="127"/>
+    </row>
+    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="F41" s="95" t="s">
+        <v>580</v>
+      </c>
+      <c r="G41" s="101" t="s">
+        <v>581</v>
+      </c>
+      <c r="H41" s="138" t="s">
+        <v>588</v>
+      </c>
+      <c r="I41" s="139" t="s">
+        <v>586</v>
+      </c>
+      <c r="J41" s="140" t="s">
+        <v>587</v>
+      </c>
+      <c r="K41" s="128" t="s">
+        <v>582</v>
+      </c>
+      <c r="L41" s="129"/>
+      <c r="M41" s="130"/>
+      <c r="N41" s="128" t="s">
+        <v>598</v>
+      </c>
+      <c r="O41" s="129"/>
+      <c r="P41" s="130"/>
+    </row>
+    <row r="42" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="F42" s="95"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="142"/>
+      <c r="K42" s="131" t="s">
+        <v>583</v>
+      </c>
+      <c r="L42" s="109" t="s">
+        <v>592</v>
+      </c>
+      <c r="M42" s="132" t="s">
+        <v>591</v>
+      </c>
+      <c r="N42" s="131" t="s">
+        <v>583</v>
+      </c>
+      <c r="O42" s="109" t="s">
+        <v>592</v>
+      </c>
+      <c r="P42" s="132" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="F43" s="109">
+        <v>1</v>
+      </c>
+      <c r="G43" s="114" t="s">
+        <v>585</v>
+      </c>
+      <c r="H43" s="133">
+        <f>SUM(I43+J43)</f>
+        <v>200000</v>
+      </c>
+      <c r="I43" s="126">
+        <v>100000</v>
+      </c>
+      <c r="J43" s="134">
+        <f>SUM(M43+P43)</f>
+        <v>100000</v>
+      </c>
+      <c r="K43" s="133">
+        <f>L43+M43</f>
+        <v>150000</v>
+      </c>
+      <c r="L43" s="109">
+        <v>100000</v>
+      </c>
+      <c r="M43" s="134">
+        <v>50000</v>
+      </c>
+      <c r="N43" s="133">
+        <f>O43+P43</f>
+        <v>150000</v>
+      </c>
+      <c r="O43" s="109">
+        <v>100000</v>
+      </c>
+      <c r="P43" s="134">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F44" s="109">
+        <v>2</v>
+      </c>
+      <c r="G44" s="114" t="s">
+        <v>589</v>
+      </c>
+      <c r="H44" s="135">
+        <f>SUM(I44+J44)</f>
+        <v>100000</v>
+      </c>
+      <c r="I44" s="143">
+        <v>100000</v>
+      </c>
+      <c r="J44" s="137">
+        <v>0</v>
+      </c>
+      <c r="K44" s="135">
+        <f>L44+M44</f>
+        <v>150000</v>
+      </c>
+      <c r="L44" s="136">
+        <v>100000</v>
+      </c>
+      <c r="M44" s="137">
+        <v>50000</v>
+      </c>
+      <c r="N44" s="135">
+        <f>O44+P44</f>
+        <v>150000</v>
+      </c>
+      <c r="O44" s="136">
+        <v>100000</v>
+      </c>
+      <c r="P44" s="137">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>83</v>
+      </c>
+      <c r="K46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>593</v>
+      </c>
+      <c r="H47" t="s">
+        <v>585</v>
+      </c>
+      <c r="I47">
+        <v>10000</v>
+      </c>
+      <c r="K47" t="s">
+        <v>593</v>
+      </c>
+      <c r="L47" t="s">
+        <v>585</v>
+      </c>
+      <c r="M47">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>594</v>
+      </c>
+      <c r="H48" t="s">
+        <v>585</v>
+      </c>
+      <c r="I48">
+        <v>10000</v>
+      </c>
+      <c r="K48" t="s">
+        <v>594</v>
+      </c>
+      <c r="L48" t="s">
+        <v>585</v>
+      </c>
+      <c r="M48">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>595</v>
+      </c>
+      <c r="H49" t="s">
+        <v>585</v>
+      </c>
+      <c r="I49">
+        <v>10000</v>
+      </c>
+      <c r="K49" t="s">
+        <v>595</v>
+      </c>
+      <c r="L49" t="s">
+        <v>585</v>
+      </c>
+      <c r="M49">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="50" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>596</v>
+      </c>
+      <c r="H50" t="s">
+        <v>585</v>
+      </c>
+      <c r="I50">
+        <v>10000</v>
+      </c>
+      <c r="K50" t="s">
+        <v>596</v>
+      </c>
+      <c r="L50" t="s">
+        <v>585</v>
+      </c>
+      <c r="M50">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="51" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>597</v>
+      </c>
+      <c r="H51" t="s">
+        <v>585</v>
+      </c>
+      <c r="I51">
+        <v>10000</v>
+      </c>
+      <c r="K51" t="s">
+        <v>616</v>
+      </c>
+      <c r="L51" t="s">
+        <v>585</v>
+      </c>
+      <c r="M51">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="54" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F55" s="95" t="s">
+        <v>580</v>
+      </c>
+      <c r="G55" s="101" t="s">
+        <v>581</v>
+      </c>
+      <c r="H55" s="138" t="s">
+        <v>588</v>
+      </c>
+      <c r="I55" s="139" t="s">
+        <v>586</v>
+      </c>
+      <c r="J55" s="140" t="s">
+        <v>587</v>
+      </c>
+      <c r="K55" s="128" t="s">
+        <v>600</v>
+      </c>
+      <c r="L55" s="129"/>
+      <c r="M55" s="130"/>
+      <c r="N55" s="128" t="s">
+        <v>601</v>
+      </c>
+      <c r="O55" s="129"/>
+      <c r="P55" s="130"/>
+    </row>
+    <row r="56" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F56" s="95"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="141"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="142"/>
+      <c r="K56" s="131" t="s">
+        <v>583</v>
+      </c>
+      <c r="L56" s="109" t="s">
+        <v>592</v>
+      </c>
+      <c r="M56" s="132" t="s">
+        <v>591</v>
+      </c>
+      <c r="N56" s="131" t="s">
+        <v>583</v>
+      </c>
+      <c r="O56" s="109" t="s">
+        <v>592</v>
+      </c>
+      <c r="P56" s="132" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="57" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F57" s="109">
+        <v>1</v>
+      </c>
+      <c r="G57" s="114" t="s">
+        <v>585</v>
+      </c>
+      <c r="H57" s="133">
+        <f>SUM(I57+J57)</f>
+        <v>200000</v>
+      </c>
+      <c r="I57" s="126">
+        <v>100000</v>
+      </c>
+      <c r="J57" s="134">
+        <f>SUM(M57+P57)</f>
+        <v>100000</v>
+      </c>
+      <c r="K57" s="133">
+        <f>L57+M57</f>
+        <v>150000</v>
+      </c>
+      <c r="L57" s="109">
+        <v>100000</v>
+      </c>
+      <c r="M57" s="134">
+        <v>50000</v>
+      </c>
+      <c r="N57" s="133">
+        <f>O57+P57</f>
+        <v>150000</v>
+      </c>
+      <c r="O57" s="109">
+        <v>100000</v>
+      </c>
+      <c r="P57" s="134">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="58" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F58" s="109">
+        <v>2</v>
+      </c>
+      <c r="G58" s="114" t="s">
+        <v>589</v>
+      </c>
+      <c r="H58" s="135">
+        <f>SUM(I58+J58)</f>
+        <v>100000</v>
+      </c>
+      <c r="I58" s="143">
+        <v>100000</v>
+      </c>
+      <c r="J58" s="137">
+        <v>0</v>
+      </c>
+      <c r="K58" s="135">
+        <f>L58+M58</f>
+        <v>150000</v>
+      </c>
+      <c r="L58" s="136">
+        <v>100000</v>
+      </c>
+      <c r="M58" s="137">
+        <v>50000</v>
+      </c>
+      <c r="N58" s="135">
+        <f>O58+P58</f>
+        <v>150000</v>
+      </c>
+      <c r="O58" s="136">
+        <v>100000</v>
+      </c>
+      <c r="P58" s="137">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="69" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
+        <v>602</v>
+      </c>
+      <c r="G69" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="71" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>613</v>
+      </c>
+      <c r="G71" s="118" t="s">
+        <v>614</v>
+      </c>
+      <c r="H71" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="72" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F72" s="97" t="s">
+        <v>604</v>
+      </c>
+      <c r="G72" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="H72" s="97" t="s">
+        <v>606</v>
+      </c>
+      <c r="I72" s="97" t="s">
+        <v>608</v>
+      </c>
+      <c r="J72" s="147" t="s">
+        <v>610</v>
+      </c>
+      <c r="K72" s="146" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="73" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F73" s="97" t="s">
+        <v>605</v>
+      </c>
+      <c r="G73" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="H73" s="97" t="s">
+        <v>607</v>
+      </c>
+      <c r="I73" s="97" t="s">
+        <v>608</v>
+      </c>
+      <c r="J73" s="147" t="s">
+        <v>610</v>
+      </c>
+      <c r="K73" s="146" t="s">
+        <v>612</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="AC15:AD15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/test-data/verify/용역비지급명부_계산.xlsx
+++ b/test-data/verify/용역비지급명부_계산.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C12B7D-74EB-4E21-9914-0797DC3F1998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC68C9BC-8BD7-4F74-8949-C16AD09123BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="720" windowWidth="22830" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="용역비 지급명부" sheetId="1" r:id="rId1"/>
@@ -2217,7 +2217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -2872,6 +2872,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3059,21 +3068,6 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3085,56 +3079,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3142,20 +3103,7 @@
     <xf numFmtId="3" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3179,28 +3127,89 @@
     <xf numFmtId="3" fontId="0" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="0" fillId="11" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="11" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="11" borderId="48" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="11" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="11" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="11" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="11" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="11" borderId="46" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6625,10 +6634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W68"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52:M56"/>
+    <sheetView tabSelected="1" topLeftCell="D48" workbookViewId="0">
+      <selection activeCell="S75" sqref="S75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6643,31 +6652,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
+      <c r="A1" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6720,19 +6729,19 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="90" t="s">
+      <c r="E8" s="122" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -6791,11 +6800,11 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
+      <c r="A9" s="122"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="6" t="s">
         <v>37</v>
       </c>
@@ -8686,78 +8695,78 @@
       </c>
     </row>
     <row r="53" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E53" s="88" t="s">
+      <c r="E53" s="120" t="s">
         <v>83</v>
       </c>
       <c r="F53" s="17">
-        <v>4000000</v>
+        <v>2250000</v>
       </c>
       <c r="G53" s="16">
         <v>0.24</v>
       </c>
       <c r="H53" s="17">
         <f>$F$53*G53</f>
-        <v>960000</v>
+        <v>540000</v>
       </c>
       <c r="I53" s="16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J53" s="16">
         <f>I53+I54</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K53" s="18">
         <f>H53/J53</f>
-        <v>96000</v>
+        <v>180000</v>
       </c>
       <c r="L53" s="18">
         <f>K53</f>
-        <v>96000</v>
+        <v>180000</v>
       </c>
       <c r="M53" s="18">
         <f>L53/10</f>
-        <v>9600</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="54" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E54" s="88"/>
+      <c r="E54" s="120"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16">
         <v>0.19</v>
       </c>
       <c r="H54" s="17">
         <f t="shared" ref="H54:H56" si="10">$F$53*G54</f>
-        <v>760000</v>
+        <v>427500</v>
       </c>
       <c r="I54" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" s="16">
         <f>I54+I55</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K54" s="18">
         <f>H54/J54</f>
-        <v>380000</v>
+        <v>427500</v>
       </c>
       <c r="L54" s="18">
-        <f>L53+K54</f>
-        <v>476000</v>
+        <f>K53+K54</f>
+        <v>607500</v>
       </c>
       <c r="M54" s="18">
         <f>L54/10</f>
-        <v>47600</v>
+        <v>60750</v>
       </c>
     </row>
     <row r="55" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E55" s="88"/>
+      <c r="E55" s="120"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16">
         <v>0.14000000000000001</v>
       </c>
       <c r="H55" s="17">
         <f t="shared" si="10"/>
-        <v>560000</v>
+        <v>315000.00000000006</v>
       </c>
       <c r="I55" s="16">
         <v>0</v>
@@ -8771,7 +8780,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L55" s="18" t="e">
-        <f>L54+K55</f>
+        <f t="shared" ref="L55:L56" si="11">K54+K55</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M55" s="18" t="e">
@@ -8780,14 +8789,14 @@
       </c>
     </row>
     <row r="56" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E56" s="88"/>
+      <c r="E56" s="120"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16">
         <v>0.09</v>
       </c>
       <c r="H56" s="17">
         <f t="shared" si="10"/>
-        <v>360000</v>
+        <v>202500</v>
       </c>
       <c r="I56" s="16"/>
       <c r="J56" s="16">
@@ -8799,7 +8808,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L56" s="18" t="e">
-        <f>L55+K56</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M56" s="18" t="e">
@@ -8837,18 +8846,18 @@
       </c>
     </row>
     <row r="59" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E59" s="88" t="s">
+      <c r="E59" s="120" t="s">
         <v>85</v>
       </c>
       <c r="F59" s="17">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="G59" s="16">
         <v>0.24</v>
       </c>
       <c r="H59" s="17">
         <f>$F$59*G59</f>
-        <v>720000</v>
+        <v>600000</v>
       </c>
       <c r="I59" s="16">
         <v>4</v>
@@ -8859,86 +8868,86 @@
       </c>
       <c r="K59" s="18">
         <f>H59/J59</f>
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="L59" s="18">
         <f>K59</f>
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="M59" s="18">
         <f>L59/10</f>
-        <v>12000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="60" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E60" s="88"/>
+      <c r="E60" s="120"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16">
         <v>0.19</v>
       </c>
       <c r="H60" s="17">
-        <f t="shared" ref="H60:H62" si="11">$F$59*G60</f>
-        <v>570000</v>
+        <f t="shared" ref="H60:H62" si="12">$F$59*G60</f>
+        <v>475000</v>
       </c>
       <c r="I60" s="16">
         <v>2</v>
       </c>
       <c r="J60" s="16">
         <f>I60+I61</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K60" s="18">
         <f>H60/J60</f>
-        <v>285000</v>
+        <v>158333.33333333334</v>
       </c>
       <c r="L60" s="18">
-        <f>L59+K60</f>
-        <v>405000</v>
+        <f>K59+K60</f>
+        <v>258333.33333333334</v>
       </c>
       <c r="M60" s="18">
         <f>L60/10</f>
-        <v>40500</v>
+        <v>25833.333333333336</v>
       </c>
     </row>
     <row r="61" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E61" s="88"/>
+      <c r="E61" s="120"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16">
         <v>0.14000000000000001</v>
       </c>
       <c r="H61" s="17">
-        <f t="shared" si="11"/>
-        <v>420000.00000000006</v>
+        <f t="shared" si="12"/>
+        <v>350000.00000000006</v>
       </c>
       <c r="I61" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="16">
         <f>I61+I62</f>
-        <v>0</v>
-      </c>
-      <c r="K61" s="18" t="e">
+        <v>1</v>
+      </c>
+      <c r="K61" s="18">
         <f>H61/J61</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L61" s="18" t="e">
-        <f>L60+K61</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M61" s="18" t="e">
+        <v>350000.00000000006</v>
+      </c>
+      <c r="L61" s="18">
+        <f t="shared" ref="L61:L62" si="13">K60+K61</f>
+        <v>508333.33333333337</v>
+      </c>
+      <c r="M61" s="18">
         <f>L61/10</f>
-        <v>#DIV/0!</v>
+        <v>50833.333333333336</v>
       </c>
     </row>
     <row r="62" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E62" s="88"/>
+      <c r="E62" s="120"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16">
         <v>0.09</v>
       </c>
       <c r="H62" s="17">
-        <f t="shared" si="11"/>
-        <v>270000</v>
+        <f t="shared" si="12"/>
+        <v>225000</v>
       </c>
       <c r="I62" s="16">
         <v>0</v>
@@ -8952,7 +8961,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L62" s="18" t="e">
-        <f>L61+K62</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M62" s="18" t="e">
@@ -8988,129 +8997,271 @@
       <c r="M64" s="20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="65" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E65" s="88" t="s">
+      <c r="O64" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="P64" s="145">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="145">
+        <f>$O$64*P64</f>
+        <v>1000000</v>
+      </c>
+      <c r="R64" s="145"/>
+    </row>
+    <row r="65" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E65" s="120" t="s">
         <v>84</v>
       </c>
       <c r="F65" s="17">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="G65" s="16">
         <v>0.24</v>
       </c>
       <c r="H65" s="17">
         <f>$F$65*G65</f>
-        <v>240000</v>
+        <v>1200000</v>
       </c>
       <c r="I65" s="16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J65" s="16">
         <f>I65+I66</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K65" s="18">
         <f>H65/J65</f>
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="L65" s="18">
         <f>K65</f>
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="M65" s="18">
         <f>L65/10</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="66" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E66" s="88"/>
+        <v>10000</v>
+      </c>
+      <c r="P65" s="145">
+        <v>0.75</v>
+      </c>
+      <c r="Q65" s="145">
+        <f t="shared" ref="Q65:Q66" si="14">$O$64*P65</f>
+        <v>750000</v>
+      </c>
+      <c r="R65" s="145"/>
+    </row>
+    <row r="66" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E66" s="120"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16">
         <v>0.19</v>
       </c>
       <c r="H66" s="17">
-        <f t="shared" ref="H66:H68" si="12">$F$65*G66</f>
-        <v>190000</v>
+        <f t="shared" ref="H66:H68" si="15">$F$65*G66</f>
+        <v>950000</v>
       </c>
       <c r="I66" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J66" s="16">
         <f>I66+I67</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K66" s="18">
         <f>H66/J66</f>
-        <v>63333.333333333336</v>
+        <v>158333.33333333334</v>
       </c>
       <c r="L66" s="18">
-        <f>L65+K66</f>
-        <v>103333.33333333334</v>
+        <f>K65+K66</f>
+        <v>258333.33333333334</v>
       </c>
       <c r="M66" s="18">
         <f>L66/10</f>
-        <v>10333.333333333334</v>
-      </c>
-    </row>
-    <row r="67" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E67" s="88"/>
+        <v>25833.333333333336</v>
+      </c>
+      <c r="P66" s="146">
+        <v>0.5</v>
+      </c>
+      <c r="Q66" s="146">
+        <f>$O$64*P66</f>
+        <v>500000</v>
+      </c>
+      <c r="R66" s="146">
+        <f>SUM(Q64:Q66)</f>
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="67" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E67" s="120"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16">
         <v>0.14000000000000001</v>
       </c>
       <c r="H67" s="17">
-        <f t="shared" si="12"/>
-        <v>140000</v>
+        <f t="shared" si="15"/>
+        <v>700000.00000000012</v>
       </c>
       <c r="I67" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" s="16">
         <f>I67+I68</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K67" s="18">
         <f>H67/J67</f>
-        <v>140000</v>
+        <v>233333.33333333337</v>
       </c>
       <c r="L67" s="18">
-        <f>L66+K67</f>
-        <v>243333.33333333334</v>
+        <f t="shared" ref="L67:L68" si="16">K66+K67</f>
+        <v>391666.66666666674</v>
       </c>
       <c r="M67" s="18">
         <f>L67/10</f>
-        <v>24333.333333333336</v>
-      </c>
-    </row>
-    <row r="68" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E68" s="88"/>
+        <v>39166.666666666672</v>
+      </c>
+      <c r="P67" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="1">
+        <f t="shared" ref="Q67:Q78" si="17">$O$64*P67</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="68" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E68" s="120"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16">
         <v>0.09</v>
       </c>
       <c r="H68" s="17">
-        <f t="shared" si="12"/>
-        <v>90000</v>
+        <f t="shared" si="15"/>
+        <v>450000</v>
       </c>
       <c r="I68" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" s="16">
         <f>I68+I69</f>
-        <v>0</v>
-      </c>
-      <c r="K68" s="18" t="e">
+        <v>1</v>
+      </c>
+      <c r="K68" s="18">
         <f>H68/J68</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L68" s="18" t="e">
-        <f>L67+K68</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M68" s="18" t="e">
+        <v>450000</v>
+      </c>
+      <c r="L68" s="18">
+        <f t="shared" si="16"/>
+        <v>683333.33333333337</v>
+      </c>
+      <c r="M68" s="18">
         <f>L68/10</f>
-        <v>#DIV/0!</v>
+        <v>68333.333333333343</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q68" s="1">
+        <f t="shared" si="17"/>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="69" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="P69" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q69" s="1">
+        <f t="shared" si="17"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="70" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="P70" s="146">
+        <v>0.25</v>
+      </c>
+      <c r="Q70" s="146">
+        <f t="shared" si="17"/>
+        <v>250000</v>
+      </c>
+      <c r="R70" s="146">
+        <f>SUM(Q67:Q70)</f>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="71" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="P71" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="1">
+        <f t="shared" si="17"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="72" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="P72" s="71">
+        <v>0.75</v>
+      </c>
+      <c r="Q72" s="1">
+        <f t="shared" si="17"/>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="73" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="P73" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="Q73" s="1">
+        <f t="shared" si="17"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="74" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="P74" s="71">
+        <v>0.25</v>
+      </c>
+      <c r="Q74" s="1">
+        <f t="shared" si="17"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="75" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="P75" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="1">
+        <f t="shared" si="17"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="76" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="P76" s="71">
+        <v>0.75</v>
+      </c>
+      <c r="Q76" s="1">
+        <f t="shared" si="17"/>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="77" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="P77" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="Q77" s="1">
+        <f t="shared" si="17"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="78" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="P78" s="147">
+        <v>0.25</v>
+      </c>
+      <c r="Q78" s="146">
+        <f t="shared" si="17"/>
+        <v>250000</v>
+      </c>
+      <c r="R78" s="146">
+        <f>SUM(Q71:Q78)</f>
+        <v>5000000</v>
       </c>
     </row>
   </sheetData>
@@ -14376,23 +14527,23 @@
       </c>
     </row>
     <row r="93" spans="10:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J93" s="91" t="s">
+      <c r="J93" s="123" t="s">
         <v>368</v>
       </c>
-      <c r="K93" s="91"/>
-      <c r="L93" s="91"/>
-      <c r="M93" s="91"/>
-      <c r="N93" s="91"/>
-      <c r="O93" s="91"/>
-      <c r="P93" s="91"/>
-      <c r="Q93" s="91"/>
-      <c r="R93" s="91"/>
-      <c r="S93" s="91"/>
-      <c r="T93" s="91"/>
-      <c r="U93" s="91"/>
-      <c r="V93" s="91"/>
-      <c r="W93" s="91"/>
-      <c r="X93" s="91"/>
+      <c r="K93" s="123"/>
+      <c r="L93" s="123"/>
+      <c r="M93" s="123"/>
+      <c r="N93" s="123"/>
+      <c r="O93" s="123"/>
+      <c r="P93" s="123"/>
+      <c r="Q93" s="123"/>
+      <c r="R93" s="123"/>
+      <c r="S93" s="123"/>
+      <c r="T93" s="123"/>
+      <c r="U93" s="123"/>
+      <c r="V93" s="123"/>
+      <c r="W93" s="123"/>
+      <c r="X93" s="123"/>
     </row>
     <row r="94" spans="10:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J94" s="1" t="s">
@@ -14400,23 +14551,23 @@
       </c>
     </row>
     <row r="95" spans="10:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J95" s="91" t="s">
+      <c r="J95" s="123" t="s">
         <v>369</v>
       </c>
-      <c r="K95" s="91"/>
-      <c r="L95" s="91"/>
-      <c r="M95" s="91"/>
-      <c r="N95" s="91"/>
-      <c r="O95" s="91"/>
-      <c r="P95" s="91"/>
-      <c r="Q95" s="91"/>
-      <c r="R95" s="91"/>
-      <c r="S95" s="91"/>
-      <c r="T95" s="91"/>
-      <c r="U95" s="91"/>
-      <c r="V95" s="91"/>
-      <c r="W95" s="91"/>
-      <c r="X95" s="91"/>
+      <c r="K95" s="123"/>
+      <c r="L95" s="123"/>
+      <c r="M95" s="123"/>
+      <c r="N95" s="123"/>
+      <c r="O95" s="123"/>
+      <c r="P95" s="123"/>
+      <c r="Q95" s="123"/>
+      <c r="R95" s="123"/>
+      <c r="S95" s="123"/>
+      <c r="T95" s="123"/>
+      <c r="U95" s="123"/>
+      <c r="V95" s="123"/>
+      <c r="W95" s="123"/>
+      <c r="X95" s="123"/>
     </row>
     <row r="96" spans="10:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J96" s="1" t="s">
@@ -14424,23 +14575,23 @@
       </c>
     </row>
     <row r="97" spans="10:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J97" s="91" t="s">
+      <c r="J97" s="123" t="s">
         <v>370</v>
       </c>
-      <c r="K97" s="91"/>
-      <c r="L97" s="91"/>
-      <c r="M97" s="91"/>
-      <c r="N97" s="91"/>
-      <c r="O97" s="91"/>
-      <c r="P97" s="91"/>
-      <c r="Q97" s="91"/>
-      <c r="R97" s="91"/>
-      <c r="S97" s="91"/>
-      <c r="T97" s="91"/>
-      <c r="U97" s="91"/>
-      <c r="V97" s="91"/>
-      <c r="W97" s="91"/>
-      <c r="X97" s="91"/>
+      <c r="K97" s="123"/>
+      <c r="L97" s="123"/>
+      <c r="M97" s="123"/>
+      <c r="N97" s="123"/>
+      <c r="O97" s="123"/>
+      <c r="P97" s="123"/>
+      <c r="Q97" s="123"/>
+      <c r="R97" s="123"/>
+      <c r="S97" s="123"/>
+      <c r="T97" s="123"/>
+      <c r="U97" s="123"/>
+      <c r="V97" s="123"/>
+      <c r="W97" s="123"/>
+      <c r="X97" s="123"/>
     </row>
     <row r="98" spans="10:25" x14ac:dyDescent="0.25">
       <c r="J98" s="1" t="s">
@@ -17835,25 +17986,25 @@
       </c>
     </row>
     <row r="190" spans="10:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J190" s="92" t="s">
+      <c r="J190" s="124" t="s">
         <v>262</v>
       </c>
-      <c r="K190" s="92"/>
-      <c r="L190" s="92"/>
-      <c r="M190" s="92"/>
-      <c r="N190" s="92"/>
-      <c r="O190" s="92"/>
-      <c r="P190" s="92"/>
-      <c r="Q190" s="92"/>
-      <c r="R190" s="92"/>
-      <c r="S190" s="92"/>
-      <c r="T190" s="92"/>
-      <c r="U190" s="92"/>
-      <c r="V190" s="92"/>
-      <c r="W190" s="92"/>
-      <c r="X190" s="92"/>
-      <c r="Y190" s="92"/>
-      <c r="Z190" s="92"/>
+      <c r="K190" s="124"/>
+      <c r="L190" s="124"/>
+      <c r="M190" s="124"/>
+      <c r="N190" s="124"/>
+      <c r="O190" s="124"/>
+      <c r="P190" s="124"/>
+      <c r="Q190" s="124"/>
+      <c r="R190" s="124"/>
+      <c r="S190" s="124"/>
+      <c r="T190" s="124"/>
+      <c r="U190" s="124"/>
+      <c r="V190" s="124"/>
+      <c r="W190" s="124"/>
+      <c r="X190" s="124"/>
+      <c r="Y190" s="124"/>
+      <c r="Z190" s="124"/>
     </row>
     <row r="191" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J191" s="1" t="s">
@@ -17861,25 +18012,25 @@
       </c>
     </row>
     <row r="192" spans="10:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J192" s="91" t="s">
+      <c r="J192" s="123" t="s">
         <v>264</v>
       </c>
-      <c r="K192" s="91"/>
-      <c r="L192" s="91"/>
-      <c r="M192" s="91"/>
-      <c r="N192" s="91"/>
-      <c r="O192" s="91"/>
-      <c r="P192" s="91"/>
-      <c r="Q192" s="91"/>
-      <c r="R192" s="91"/>
-      <c r="S192" s="91"/>
-      <c r="T192" s="91"/>
-      <c r="U192" s="91"/>
-      <c r="V192" s="91"/>
-      <c r="W192" s="91"/>
-      <c r="X192" s="91"/>
-      <c r="Y192" s="91"/>
-      <c r="Z192" s="91"/>
+      <c r="K192" s="123"/>
+      <c r="L192" s="123"/>
+      <c r="M192" s="123"/>
+      <c r="N192" s="123"/>
+      <c r="O192" s="123"/>
+      <c r="P192" s="123"/>
+      <c r="Q192" s="123"/>
+      <c r="R192" s="123"/>
+      <c r="S192" s="123"/>
+      <c r="T192" s="123"/>
+      <c r="U192" s="123"/>
+      <c r="V192" s="123"/>
+      <c r="W192" s="123"/>
+      <c r="X192" s="123"/>
+      <c r="Y192" s="123"/>
+      <c r="Z192" s="123"/>
     </row>
     <row r="193" spans="10:27" x14ac:dyDescent="0.25">
       <c r="J193" s="1" t="s">
@@ -17887,25 +18038,25 @@
       </c>
     </row>
     <row r="194" spans="10:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J194" s="91" t="s">
+      <c r="J194" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="K194" s="91"/>
-      <c r="L194" s="91"/>
-      <c r="M194" s="91"/>
-      <c r="N194" s="91"/>
-      <c r="O194" s="91"/>
-      <c r="P194" s="91"/>
-      <c r="Q194" s="91"/>
-      <c r="R194" s="91"/>
-      <c r="S194" s="91"/>
-      <c r="T194" s="91"/>
-      <c r="U194" s="91"/>
-      <c r="V194" s="91"/>
-      <c r="W194" s="91"/>
-      <c r="X194" s="91"/>
-      <c r="Y194" s="91"/>
-      <c r="Z194" s="91"/>
+      <c r="K194" s="123"/>
+      <c r="L194" s="123"/>
+      <c r="M194" s="123"/>
+      <c r="N194" s="123"/>
+      <c r="O194" s="123"/>
+      <c r="P194" s="123"/>
+      <c r="Q194" s="123"/>
+      <c r="R194" s="123"/>
+      <c r="S194" s="123"/>
+      <c r="T194" s="123"/>
+      <c r="U194" s="123"/>
+      <c r="V194" s="123"/>
+      <c r="W194" s="123"/>
+      <c r="X194" s="123"/>
+      <c r="Y194" s="123"/>
+      <c r="Z194" s="123"/>
     </row>
     <row r="195" spans="10:27" x14ac:dyDescent="0.25">
       <c r="J195" s="1" t="s">
@@ -38462,45 +38613,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
+      <c r="A1" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="121"/>
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="121"/>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="121"/>
+      <c r="AJ1" s="121"/>
+      <c r="AK1" s="121"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -38553,19 +38704,19 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="90" t="s">
+      <c r="E8" s="122" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -38666,11 +38817,11 @@
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
+      <c r="A9" s="122"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="6" t="s">
         <v>37</v>
       </c>
@@ -57319,7 +57470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7006D4-6C07-476B-AA00-13A502BAC23C}">
   <dimension ref="A8:AL73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -57359,47 +57510,47 @@
       <c r="G9" t="s">
         <v>151</v>
       </c>
-      <c r="K9" s="93">
+      <c r="K9" s="88">
         <v>24000</v>
       </c>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93">
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88">
         <v>24000</v>
       </c>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93">
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88">
         <v>24000</v>
       </c>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93">
+      <c r="S9" s="88"/>
+      <c r="T9" s="88">
         <v>24000</v>
       </c>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93">
+      <c r="U9" s="88"/>
+      <c r="V9" s="88">
         <v>24000</v>
       </c>
-      <c r="W9" s="93">
+      <c r="W9" s="88">
         <v>24000</v>
       </c>
-      <c r="X9" s="93">
+      <c r="X9" s="88">
         <v>24000</v>
       </c>
-      <c r="Y9" s="93">
+      <c r="Y9" s="88">
         <v>24000</v>
       </c>
-      <c r="Z9" s="93">
+      <c r="Z9" s="88">
         <v>24000</v>
       </c>
-      <c r="AA9" s="93">
+      <c r="AA9" s="88">
         <v>24000</v>
       </c>
-      <c r="AB9" s="93">
+      <c r="AB9" s="88">
         <v>24000</v>
       </c>
-      <c r="AC9" s="93"/>
+      <c r="AC9" s="88"/>
     </row>
     <row r="10" spans="6:38" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
@@ -57480,283 +57631,283 @@
       </c>
     </row>
     <row r="14" spans="6:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F14" s="97" t="s">
+      <c r="F14" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="97" t="s">
+      <c r="G14" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="100" t="s">
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="143" t="s">
         <v>548</v>
       </c>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
     </row>
     <row r="15" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F15" s="95" t="s">
+      <c r="F15" s="131" t="s">
         <v>547</v>
       </c>
-      <c r="G15" s="95" t="s">
+      <c r="G15" s="131" t="s">
         <v>364</v>
       </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="97" t="s">
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="92" t="s">
         <v>570</v>
       </c>
-      <c r="L15" s="97" t="s">
+      <c r="L15" s="92" t="s">
         <v>571</v>
       </c>
-      <c r="M15" s="109" t="s">
+      <c r="M15" s="94" t="s">
         <v>572</v>
       </c>
-      <c r="N15" s="109" t="s">
+      <c r="N15" s="94" t="s">
         <v>572</v>
       </c>
-      <c r="O15" s="121" t="s">
+      <c r="O15" s="144" t="s">
         <v>554</v>
       </c>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="106" t="s">
+      <c r="P15" s="142"/>
+      <c r="Q15" s="141" t="s">
         <v>555</v>
       </c>
-      <c r="R15" s="107"/>
-      <c r="S15" s="106" t="s">
+      <c r="R15" s="142"/>
+      <c r="S15" s="141" t="s">
         <v>556</v>
       </c>
-      <c r="T15" s="107"/>
-      <c r="U15" s="106" t="s">
+      <c r="T15" s="142"/>
+      <c r="U15" s="141" t="s">
         <v>557</v>
       </c>
-      <c r="V15" s="107"/>
-      <c r="W15" s="106" t="s">
+      <c r="V15" s="142"/>
+      <c r="W15" s="141" t="s">
         <v>549</v>
       </c>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="102" t="s">
+      <c r="X15" s="142"/>
+      <c r="Y15" s="95" t="s">
         <v>558</v>
       </c>
-      <c r="Z15" s="97" t="s">
+      <c r="Z15" s="92" t="s">
         <v>559</v>
       </c>
-      <c r="AA15" s="97" t="s">
+      <c r="AA15" s="92" t="s">
         <v>560</v>
       </c>
-      <c r="AB15" s="111" t="s">
+      <c r="AB15" s="100" t="s">
         <v>550</v>
       </c>
-      <c r="AC15" s="106" t="s">
+      <c r="AC15" s="141" t="s">
         <v>564</v>
       </c>
-      <c r="AD15" s="107"/>
-      <c r="AE15" s="102"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="97"/>
-      <c r="AH15" s="97"/>
-      <c r="AI15" s="97"/>
-      <c r="AJ15" s="97"/>
-      <c r="AK15" s="97"/>
+      <c r="AD15" s="142"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="92"/>
     </row>
     <row r="16" spans="6:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="98" t="s">
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="93" t="s">
         <v>561</v>
       </c>
-      <c r="L16" s="98">
+      <c r="L16" s="93">
         <v>24000</v>
       </c>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="122" t="s">
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="106" t="s">
         <v>562</v>
       </c>
-      <c r="P16" s="108">
+      <c r="P16" s="98">
         <v>24000</v>
       </c>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="108">
+      <c r="Q16" s="103"/>
+      <c r="R16" s="98">
         <v>24000</v>
       </c>
-      <c r="S16" s="117"/>
-      <c r="T16" s="113">
+      <c r="S16" s="104"/>
+      <c r="T16" s="102">
         <v>24000</v>
       </c>
-      <c r="U16" s="116"/>
-      <c r="V16" s="113">
+      <c r="U16" s="103"/>
+      <c r="V16" s="102">
         <v>24000</v>
       </c>
-      <c r="W16" s="104" t="s">
+      <c r="W16" s="97" t="s">
         <v>563</v>
       </c>
-      <c r="X16" s="113">
+      <c r="X16" s="102">
         <v>296500</v>
       </c>
-      <c r="Y16" s="103">
+      <c r="Y16" s="96">
         <v>296500</v>
       </c>
-      <c r="Z16" s="96">
+      <c r="Z16" s="91">
         <v>296500</v>
       </c>
-      <c r="AA16" s="96">
+      <c r="AA16" s="91">
         <v>296500</v>
       </c>
-      <c r="AB16" s="112">
+      <c r="AB16" s="101">
         <v>933700</v>
       </c>
-      <c r="AC16" s="104" t="s">
+      <c r="AC16" s="97" t="s">
         <v>565</v>
       </c>
-      <c r="AD16" s="113">
+      <c r="AD16" s="102">
         <v>909700</v>
       </c>
-      <c r="AE16" s="103">
+      <c r="AE16" s="96">
         <v>909700</v>
       </c>
-      <c r="AF16" s="96">
+      <c r="AF16" s="91">
         <v>909700</v>
       </c>
-      <c r="AG16" s="96">
+      <c r="AG16" s="91">
         <v>909700</v>
       </c>
-      <c r="AH16" s="96">
+      <c r="AH16" s="91">
         <v>909700</v>
       </c>
-      <c r="AI16" s="96">
+      <c r="AI16" s="91">
         <v>637200</v>
       </c>
-      <c r="AJ16" s="96">
+      <c r="AJ16" s="91">
         <v>637200</v>
       </c>
-      <c r="AK16" s="96">
+      <c r="AK16" s="91">
         <v>637200</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="118" t="s">
+      <c r="A28" s="105" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="F32" s="144" t="s">
+      <c r="F32" s="118" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="33" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="F33" s="97" t="s">
+    <row r="33" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F33" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="G33" s="97" t="s">
+      <c r="G33" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="110" t="s">
+      <c r="H33" s="125" t="s">
         <v>576</v>
       </c>
-      <c r="I33" s="115"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="110" t="s">
+      <c r="I33" s="126"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="125" t="s">
         <v>548</v>
       </c>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="110" t="s">
+      <c r="L33" s="126"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="125" t="s">
         <v>554</v>
       </c>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="115"/>
-      <c r="R33" s="105"/>
-    </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="F34" s="119" t="s">
+      <c r="P33" s="126"/>
+      <c r="Q33" s="126"/>
+      <c r="R33" s="127"/>
+    </row>
+    <row r="34" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F34" s="139" t="s">
         <v>547</v>
       </c>
-      <c r="G34" s="119" t="s">
+      <c r="G34" s="139" t="s">
         <v>364</v>
       </c>
-      <c r="H34" s="97" t="s">
+      <c r="H34" s="92" t="s">
         <v>571</v>
       </c>
-      <c r="I34" s="109" t="s">
+      <c r="I34" s="94" t="s">
         <v>572</v>
       </c>
-      <c r="J34" s="109" t="s">
+      <c r="J34" s="94" t="s">
         <v>573</v>
       </c>
-      <c r="K34" s="123" t="s">
+      <c r="K34" s="107" t="s">
         <v>574</v>
       </c>
-      <c r="L34" s="97" t="s">
+      <c r="L34" s="92" t="s">
         <v>584</v>
       </c>
-      <c r="M34" s="109" t="s">
+      <c r="M34" s="94" t="s">
         <v>572</v>
       </c>
-      <c r="N34" s="109" t="s">
+      <c r="N34" s="94" t="s">
         <v>573</v>
       </c>
-      <c r="O34" s="123" t="s">
+      <c r="O34" s="107" t="s">
         <v>574</v>
       </c>
-      <c r="P34" s="97" t="s">
+      <c r="P34" s="92" t="s">
         <v>571</v>
       </c>
-      <c r="Q34" s="109" t="s">
+      <c r="Q34" s="94" t="s">
         <v>572</v>
       </c>
-      <c r="R34" s="109" t="s">
+      <c r="R34" s="94" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="35" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="99" t="s">
+    <row r="35" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F35" s="140"/>
+      <c r="G35" s="140"/>
+      <c r="H35" s="90" t="s">
         <v>577</v>
       </c>
-      <c r="I35" s="99" t="s">
+      <c r="I35" s="90" t="s">
         <v>579</v>
       </c>
-      <c r="J35" s="99" t="s">
+      <c r="J35" s="90" t="s">
         <v>578</v>
       </c>
-      <c r="K35" s="124" t="s">
+      <c r="K35" s="108" t="s">
         <v>561</v>
       </c>
-      <c r="L35" s="98">
+      <c r="L35" s="93">
         <v>24000</v>
       </c>
-      <c r="M35" s="98"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="124" t="s">
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="108" t="s">
         <v>561</v>
       </c>
-      <c r="P35" s="98">
+      <c r="P35" s="93">
         <v>24000</v>
       </c>
-      <c r="Q35" s="98"/>
-      <c r="R35" s="98"/>
-    </row>
-    <row r="36" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="Q35" s="93"/>
+      <c r="R35" s="93"/>
+    </row>
+    <row r="36" spans="6:18" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
         <v>575</v>
       </c>
-      <c r="K36" s="94" t="s">
+      <c r="K36" s="89" t="s">
         <v>569</v>
       </c>
       <c r="L36" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:18" x14ac:dyDescent="0.3">
       <c r="K37" t="s">
         <v>566</v>
       </c>
@@ -57764,28 +57915,25 @@
         <v>568</v>
       </c>
     </row>
-    <row r="40" spans="4:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="145" t="s">
+    <row r="40" spans="6:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F40" s="118" t="s">
         <v>590</v>
       </c>
-      <c r="G40" s="127"/>
-    </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="F41" s="95" t="s">
+    </row>
+    <row r="41" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F41" s="131" t="s">
         <v>580</v>
       </c>
-      <c r="G41" s="101" t="s">
+      <c r="G41" s="132" t="s">
         <v>581</v>
       </c>
-      <c r="H41" s="138" t="s">
+      <c r="H41" s="133" t="s">
         <v>588</v>
       </c>
-      <c r="I41" s="139" t="s">
+      <c r="I41" s="135" t="s">
         <v>586</v>
       </c>
-      <c r="J41" s="140" t="s">
+      <c r="J41" s="137" t="s">
         <v>587</v>
       </c>
       <c r="K41" s="128" t="s">
@@ -57799,109 +57947,109 @@
       <c r="O41" s="129"/>
       <c r="P41" s="130"/>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="F42" s="95"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="141"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="142"/>
-      <c r="K42" s="131" t="s">
+    <row r="42" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F42" s="131"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="110" t="s">
         <v>583</v>
       </c>
-      <c r="L42" s="109" t="s">
+      <c r="L42" s="94" t="s">
         <v>592</v>
       </c>
-      <c r="M42" s="132" t="s">
+      <c r="M42" s="111" t="s">
         <v>591</v>
       </c>
-      <c r="N42" s="131" t="s">
+      <c r="N42" s="110" t="s">
         <v>583</v>
       </c>
-      <c r="O42" s="109" t="s">
+      <c r="O42" s="94" t="s">
         <v>592</v>
       </c>
-      <c r="P42" s="132" t="s">
+      <c r="P42" s="111" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="F43" s="109">
+    <row r="43" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F43" s="94">
         <v>1</v>
       </c>
-      <c r="G43" s="114" t="s">
+      <c r="G43" s="99" t="s">
         <v>585</v>
       </c>
-      <c r="H43" s="133">
+      <c r="H43" s="112">
         <f>SUM(I43+J43)</f>
         <v>200000</v>
       </c>
-      <c r="I43" s="126">
+      <c r="I43" s="109">
         <v>100000</v>
       </c>
-      <c r="J43" s="134">
+      <c r="J43" s="113">
         <f>SUM(M43+P43)</f>
         <v>100000</v>
       </c>
-      <c r="K43" s="133">
+      <c r="K43" s="112">
         <f>L43+M43</f>
         <v>150000</v>
       </c>
-      <c r="L43" s="109">
+      <c r="L43" s="94">
         <v>100000</v>
       </c>
-      <c r="M43" s="134">
+      <c r="M43" s="113">
         <v>50000</v>
       </c>
-      <c r="N43" s="133">
+      <c r="N43" s="112">
         <f>O43+P43</f>
         <v>150000</v>
       </c>
-      <c r="O43" s="109">
+      <c r="O43" s="94">
         <v>100000</v>
       </c>
-      <c r="P43" s="134">
+      <c r="P43" s="113">
         <v>50000</v>
       </c>
     </row>
-    <row r="44" spans="4:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F44" s="109">
+    <row r="44" spans="6:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F44" s="94">
         <v>2</v>
       </c>
-      <c r="G44" s="114" t="s">
+      <c r="G44" s="99" t="s">
         <v>589</v>
       </c>
-      <c r="H44" s="135">
+      <c r="H44" s="114">
         <f>SUM(I44+J44)</f>
         <v>100000</v>
       </c>
-      <c r="I44" s="143">
+      <c r="I44" s="117">
         <v>100000</v>
       </c>
-      <c r="J44" s="137">
-        <v>0</v>
-      </c>
-      <c r="K44" s="135">
+      <c r="J44" s="116">
+        <v>0</v>
+      </c>
+      <c r="K44" s="114">
         <f>L44+M44</f>
         <v>150000</v>
       </c>
-      <c r="L44" s="136">
+      <c r="L44" s="115">
         <v>100000</v>
       </c>
-      <c r="M44" s="137">
+      <c r="M44" s="116">
         <v>50000</v>
       </c>
-      <c r="N44" s="135">
+      <c r="N44" s="114">
         <f>O44+P44</f>
         <v>150000</v>
       </c>
-      <c r="O44" s="136">
+      <c r="O44" s="115">
         <v>100000</v>
       </c>
-      <c r="P44" s="137">
+      <c r="P44" s="116">
         <v>50000</v>
       </c>
     </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:18" x14ac:dyDescent="0.3">
       <c r="G46" t="s">
         <v>83</v>
       </c>
@@ -57909,7 +58057,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:18" x14ac:dyDescent="0.3">
       <c r="G47" t="s">
         <v>593</v>
       </c>
@@ -57929,7 +58077,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:18" x14ac:dyDescent="0.3">
       <c r="G48" t="s">
         <v>594</v>
       </c>
@@ -58011,19 +58159,19 @@
     </row>
     <row r="54" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F55" s="95" t="s">
+      <c r="F55" s="131" t="s">
         <v>580</v>
       </c>
-      <c r="G55" s="101" t="s">
+      <c r="G55" s="132" t="s">
         <v>581</v>
       </c>
-      <c r="H55" s="138" t="s">
+      <c r="H55" s="133" t="s">
         <v>588</v>
       </c>
-      <c r="I55" s="139" t="s">
+      <c r="I55" s="135" t="s">
         <v>586</v>
       </c>
-      <c r="J55" s="140" t="s">
+      <c r="J55" s="137" t="s">
         <v>587</v>
       </c>
       <c r="K55" s="128" t="s">
@@ -58038,104 +58186,104 @@
       <c r="P55" s="130"/>
     </row>
     <row r="56" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F56" s="95"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="141"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="142"/>
-      <c r="K56" s="131" t="s">
+      <c r="F56" s="131"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="138"/>
+      <c r="K56" s="110" t="s">
         <v>583</v>
       </c>
-      <c r="L56" s="109" t="s">
+      <c r="L56" s="94" t="s">
         <v>592</v>
       </c>
-      <c r="M56" s="132" t="s">
+      <c r="M56" s="111" t="s">
         <v>591</v>
       </c>
-      <c r="N56" s="131" t="s">
+      <c r="N56" s="110" t="s">
         <v>583</v>
       </c>
-      <c r="O56" s="109" t="s">
+      <c r="O56" s="94" t="s">
         <v>592</v>
       </c>
-      <c r="P56" s="132" t="s">
+      <c r="P56" s="111" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="57" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F57" s="109">
+      <c r="F57" s="94">
         <v>1</v>
       </c>
-      <c r="G57" s="114" t="s">
+      <c r="G57" s="99" t="s">
         <v>585</v>
       </c>
-      <c r="H57" s="133">
+      <c r="H57" s="112">
         <f>SUM(I57+J57)</f>
         <v>200000</v>
       </c>
-      <c r="I57" s="126">
+      <c r="I57" s="109">
         <v>100000</v>
       </c>
-      <c r="J57" s="134">
+      <c r="J57" s="113">
         <f>SUM(M57+P57)</f>
         <v>100000</v>
       </c>
-      <c r="K57" s="133">
+      <c r="K57" s="112">
         <f>L57+M57</f>
         <v>150000</v>
       </c>
-      <c r="L57" s="109">
+      <c r="L57" s="94">
         <v>100000</v>
       </c>
-      <c r="M57" s="134">
+      <c r="M57" s="113">
         <v>50000</v>
       </c>
-      <c r="N57" s="133">
+      <c r="N57" s="112">
         <f>O57+P57</f>
         <v>150000</v>
       </c>
-      <c r="O57" s="109">
+      <c r="O57" s="94">
         <v>100000</v>
       </c>
-      <c r="P57" s="134">
+      <c r="P57" s="113">
         <v>50000</v>
       </c>
     </row>
     <row r="58" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F58" s="109">
+      <c r="F58" s="94">
         <v>2</v>
       </c>
-      <c r="G58" s="114" t="s">
+      <c r="G58" s="99" t="s">
         <v>589</v>
       </c>
-      <c r="H58" s="135">
+      <c r="H58" s="114">
         <f>SUM(I58+J58)</f>
         <v>100000</v>
       </c>
-      <c r="I58" s="143">
+      <c r="I58" s="117">
         <v>100000</v>
       </c>
-      <c r="J58" s="137">
-        <v>0</v>
-      </c>
-      <c r="K58" s="135">
+      <c r="J58" s="116">
+        <v>0</v>
+      </c>
+      <c r="K58" s="114">
         <f>L58+M58</f>
         <v>150000</v>
       </c>
-      <c r="L58" s="136">
+      <c r="L58" s="115">
         <v>100000</v>
       </c>
-      <c r="M58" s="137">
+      <c r="M58" s="116">
         <v>50000</v>
       </c>
-      <c r="N58" s="135">
+      <c r="N58" s="114">
         <f>O58+P58</f>
         <v>150000</v>
       </c>
-      <c r="O58" s="136">
+      <c r="O58" s="115">
         <v>100000</v>
       </c>
-      <c r="P58" s="137">
+      <c r="P58" s="116">
         <v>50000</v>
       </c>
     </row>
@@ -58151,7 +58299,7 @@
       <c r="F71" t="s">
         <v>613</v>
       </c>
-      <c r="G71" s="118" t="s">
+      <c r="G71" s="105" t="s">
         <v>614</v>
       </c>
       <c r="H71" t="s">
@@ -58159,47 +58307,59 @@
       </c>
     </row>
     <row r="72" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F72" s="97" t="s">
+      <c r="F72" s="92" t="s">
         <v>604</v>
       </c>
-      <c r="G72" s="97" t="s">
+      <c r="G72" s="92" t="s">
         <v>609</v>
       </c>
-      <c r="H72" s="97" t="s">
+      <c r="H72" s="92" t="s">
         <v>606</v>
       </c>
-      <c r="I72" s="97" t="s">
+      <c r="I72" s="92" t="s">
         <v>608</v>
       </c>
-      <c r="J72" s="147" t="s">
+      <c r="J72" s="92" t="s">
         <v>610</v>
       </c>
-      <c r="K72" s="146" t="s">
+      <c r="K72" s="119" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="73" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F73" s="97" t="s">
+      <c r="F73" s="92" t="s">
         <v>605</v>
       </c>
-      <c r="G73" s="97" t="s">
+      <c r="G73" s="92" t="s">
         <v>609</v>
       </c>
-      <c r="H73" s="97" t="s">
+      <c r="H73" s="92" t="s">
         <v>607</v>
       </c>
-      <c r="I73" s="97" t="s">
+      <c r="I73" s="92" t="s">
         <v>608</v>
       </c>
-      <c r="J73" s="147" t="s">
+      <c r="J73" s="92" t="s">
         <v>610</v>
       </c>
-      <c r="K73" s="146" t="s">
+      <c r="K73" s="119" t="s">
         <v>612</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
     <mergeCell ref="O33:R33"/>
     <mergeCell ref="K33:N33"/>
     <mergeCell ref="K41:M41"/>
@@ -58216,18 +58376,6 @@
     <mergeCell ref="I41:I42"/>
     <mergeCell ref="J41:J42"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="AC15:AD15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test-data/verify/용역비지급명부_계산.xlsx
+++ b/test-data/verify/용역비지급명부_계산.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC68C9BC-8BD7-4F74-8949-C16AD09123BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE09DE5-A405-4292-81EF-A609CE874FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="720" windowWidth="22830" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="1380" windowWidth="20505" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="용역비 지급명부" sheetId="1" r:id="rId1"/>
@@ -2885,7 +2885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3132,6 +3132,8 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3146,6 +3148,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3164,9 +3187,6 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3189,27 +3209,6 @@
     <xf numFmtId="17" fontId="0" fillId="11" borderId="46" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6634,10 +6633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D48" workbookViewId="0">
-      <selection activeCell="S75" sqref="S75"/>
+    <sheetView tabSelected="1" topLeftCell="D61" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6652,31 +6651,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
+      <c r="A1" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6729,19 +6728,19 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="122" t="s">
+      <c r="E8" s="124" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -6800,11 +6799,11 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="6" t="s">
         <v>37</v>
       </c>
@@ -8695,7 +8694,7 @@
       </c>
     </row>
     <row r="53" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E53" s="120" t="s">
+      <c r="E53" s="122" t="s">
         <v>83</v>
       </c>
       <c r="F53" s="17">
@@ -8729,7 +8728,7 @@
       </c>
     </row>
     <row r="54" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E54" s="120"/>
+      <c r="E54" s="122"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16">
         <v>0.19</v>
@@ -8759,7 +8758,7 @@
       </c>
     </row>
     <row r="55" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E55" s="120"/>
+      <c r="E55" s="122"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16">
         <v>0.14000000000000001</v>
@@ -8789,7 +8788,7 @@
       </c>
     </row>
     <row r="56" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E56" s="120"/>
+      <c r="E56" s="122"/>
       <c r="F56" s="16"/>
       <c r="G56" s="16">
         <v>0.09</v>
@@ -8846,7 +8845,7 @@
       </c>
     </row>
     <row r="59" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E59" s="120" t="s">
+      <c r="E59" s="122" t="s">
         <v>85</v>
       </c>
       <c r="F59" s="17">
@@ -8880,7 +8879,7 @@
       </c>
     </row>
     <row r="60" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E60" s="120"/>
+      <c r="E60" s="122"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16">
         <v>0.19</v>
@@ -8910,7 +8909,7 @@
       </c>
     </row>
     <row r="61" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E61" s="120"/>
+      <c r="E61" s="122"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16">
         <v>0.14000000000000001</v>
@@ -8940,7 +8939,7 @@
       </c>
     </row>
     <row r="62" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E62" s="120"/>
+      <c r="E62" s="122"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16">
         <v>0.09</v>
@@ -9000,107 +8999,105 @@
       <c r="O64" s="1">
         <v>1000000</v>
       </c>
-      <c r="P64" s="145">
+      <c r="P64" s="1">
         <v>1</v>
       </c>
-      <c r="Q64" s="145">
+      <c r="Q64" s="1">
         <f>$O$64*P64</f>
         <v>1000000</v>
       </c>
-      <c r="R64" s="145"/>
     </row>
     <row r="65" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E65" s="120" t="s">
+      <c r="E65" s="122" t="s">
         <v>84</v>
       </c>
       <c r="F65" s="17">
-        <v>5000000</v>
+        <v>9000000</v>
       </c>
       <c r="G65" s="16">
         <v>0.24</v>
       </c>
       <c r="H65" s="17">
         <f>$F$65*G65</f>
-        <v>1200000</v>
+        <v>2160000</v>
       </c>
       <c r="I65" s="16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J65" s="16">
         <f>I65+I66</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K65" s="18">
         <f>H65/J65</f>
-        <v>100000</v>
+        <v>135000</v>
       </c>
       <c r="L65" s="18">
         <f>K65</f>
-        <v>100000</v>
+        <v>135000</v>
       </c>
       <c r="M65" s="18">
         <f>L65/10</f>
-        <v>10000</v>
-      </c>
-      <c r="P65" s="145">
+        <v>13500</v>
+      </c>
+      <c r="P65" s="1">
         <v>0.75</v>
       </c>
-      <c r="Q65" s="145">
-        <f t="shared" ref="Q65:Q66" si="14">$O$64*P65</f>
+      <c r="Q65" s="1">
+        <f t="shared" ref="Q65" si="14">$O$64*P65</f>
         <v>750000</v>
       </c>
-      <c r="R65" s="145"/>
     </row>
     <row r="66" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E66" s="120"/>
+      <c r="E66" s="122"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16">
         <v>0.19</v>
       </c>
       <c r="H66" s="17">
         <f t="shared" ref="H66:H68" si="15">$F$65*G66</f>
-        <v>950000</v>
+        <v>1710000</v>
       </c>
       <c r="I66" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J66" s="16">
         <f>I66+I67</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K66" s="18">
         <f>H66/J66</f>
-        <v>158333.33333333334</v>
+        <v>213750</v>
       </c>
       <c r="L66" s="18">
         <f>K65+K66</f>
-        <v>258333.33333333334</v>
+        <v>348750</v>
       </c>
       <c r="M66" s="18">
         <f>L66/10</f>
-        <v>25833.333333333336</v>
-      </c>
-      <c r="P66" s="146">
+        <v>34875</v>
+      </c>
+      <c r="P66" s="120">
         <v>0.5</v>
       </c>
-      <c r="Q66" s="146">
+      <c r="Q66" s="120">
         <f>$O$64*P66</f>
         <v>500000</v>
       </c>
-      <c r="R66" s="146">
+      <c r="R66" s="120">
         <f>SUM(Q64:Q66)</f>
         <v>2250000</v>
       </c>
     </row>
     <row r="67" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E67" s="120"/>
+      <c r="E67" s="122"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16">
         <v>0.14000000000000001</v>
       </c>
       <c r="H67" s="17">
         <f t="shared" si="15"/>
-        <v>700000.00000000012</v>
+        <v>1260000.0000000002</v>
       </c>
       <c r="I67" s="16">
         <v>2</v>
@@ -9111,33 +9108,33 @@
       </c>
       <c r="K67" s="18">
         <f>H67/J67</f>
-        <v>233333.33333333337</v>
+        <v>420000.00000000006</v>
       </c>
       <c r="L67" s="18">
         <f t="shared" ref="L67:L68" si="16">K66+K67</f>
-        <v>391666.66666666674</v>
+        <v>633750</v>
       </c>
       <c r="M67" s="18">
         <f>L67/10</f>
-        <v>39166.666666666672</v>
+        <v>63375</v>
       </c>
       <c r="P67" s="1">
         <v>1</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" ref="Q67:Q78" si="17">$O$64*P67</f>
+        <f t="shared" ref="Q67:Q82" si="17">$O$64*P67</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="68" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E68" s="120"/>
+      <c r="E68" s="122"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16">
         <v>0.09</v>
       </c>
       <c r="H68" s="17">
         <f t="shared" si="15"/>
-        <v>450000</v>
+        <v>810000</v>
       </c>
       <c r="I68" s="16">
         <v>1</v>
@@ -9148,15 +9145,15 @@
       </c>
       <c r="K68" s="18">
         <f>H68/J68</f>
-        <v>450000</v>
+        <v>810000</v>
       </c>
       <c r="L68" s="18">
         <f t="shared" si="16"/>
-        <v>683333.33333333337</v>
+        <v>1230000</v>
       </c>
       <c r="M68" s="18">
         <f>L68/10</f>
-        <v>68333.333333333343</v>
+        <v>123000</v>
       </c>
       <c r="P68" s="1">
         <v>0.75</v>
@@ -9176,14 +9173,14 @@
       </c>
     </row>
     <row r="70" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="P70" s="146">
+      <c r="P70" s="120">
         <v>0.25</v>
       </c>
-      <c r="Q70" s="146">
+      <c r="Q70" s="120">
         <f t="shared" si="17"/>
         <v>250000</v>
       </c>
-      <c r="R70" s="146">
+      <c r="R70" s="120">
         <f>SUM(Q67:Q70)</f>
         <v>2500000</v>
       </c>
@@ -9252,16 +9249,56 @@
       </c>
     </row>
     <row r="78" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="P78" s="147">
+      <c r="P78" s="121">
         <v>0.25</v>
       </c>
-      <c r="Q78" s="146">
+      <c r="Q78" s="120">
         <f t="shared" si="17"/>
         <v>250000</v>
       </c>
-      <c r="R78" s="146">
+      <c r="R78" s="120">
         <f>SUM(Q71:Q78)</f>
         <v>5000000</v>
+      </c>
+    </row>
+    <row r="79" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="P79" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="1">
+        <f t="shared" si="17"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="80" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="P80" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="1">
+        <f t="shared" si="17"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="81" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P81" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="1">
+        <f t="shared" si="17"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="82" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P82" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="120">
+        <f t="shared" ref="Q82" si="18">$O$64*P82</f>
+        <v>1000000</v>
+      </c>
+      <c r="R82" s="120">
+        <f>SUM(Q71:Q82)</f>
+        <v>9000000</v>
       </c>
     </row>
   </sheetData>
@@ -14527,23 +14564,23 @@
       </c>
     </row>
     <row r="93" spans="10:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J93" s="123" t="s">
+      <c r="J93" s="125" t="s">
         <v>368</v>
       </c>
-      <c r="K93" s="123"/>
-      <c r="L93" s="123"/>
-      <c r="M93" s="123"/>
-      <c r="N93" s="123"/>
-      <c r="O93" s="123"/>
-      <c r="P93" s="123"/>
-      <c r="Q93" s="123"/>
-      <c r="R93" s="123"/>
-      <c r="S93" s="123"/>
-      <c r="T93" s="123"/>
-      <c r="U93" s="123"/>
-      <c r="V93" s="123"/>
-      <c r="W93" s="123"/>
-      <c r="X93" s="123"/>
+      <c r="K93" s="125"/>
+      <c r="L93" s="125"/>
+      <c r="M93" s="125"/>
+      <c r="N93" s="125"/>
+      <c r="O93" s="125"/>
+      <c r="P93" s="125"/>
+      <c r="Q93" s="125"/>
+      <c r="R93" s="125"/>
+      <c r="S93" s="125"/>
+      <c r="T93" s="125"/>
+      <c r="U93" s="125"/>
+      <c r="V93" s="125"/>
+      <c r="W93" s="125"/>
+      <c r="X93" s="125"/>
     </row>
     <row r="94" spans="10:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J94" s="1" t="s">
@@ -14551,23 +14588,23 @@
       </c>
     </row>
     <row r="95" spans="10:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J95" s="123" t="s">
+      <c r="J95" s="125" t="s">
         <v>369</v>
       </c>
-      <c r="K95" s="123"/>
-      <c r="L95" s="123"/>
-      <c r="M95" s="123"/>
-      <c r="N95" s="123"/>
-      <c r="O95" s="123"/>
-      <c r="P95" s="123"/>
-      <c r="Q95" s="123"/>
-      <c r="R95" s="123"/>
-      <c r="S95" s="123"/>
-      <c r="T95" s="123"/>
-      <c r="U95" s="123"/>
-      <c r="V95" s="123"/>
-      <c r="W95" s="123"/>
-      <c r="X95" s="123"/>
+      <c r="K95" s="125"/>
+      <c r="L95" s="125"/>
+      <c r="M95" s="125"/>
+      <c r="N95" s="125"/>
+      <c r="O95" s="125"/>
+      <c r="P95" s="125"/>
+      <c r="Q95" s="125"/>
+      <c r="R95" s="125"/>
+      <c r="S95" s="125"/>
+      <c r="T95" s="125"/>
+      <c r="U95" s="125"/>
+      <c r="V95" s="125"/>
+      <c r="W95" s="125"/>
+      <c r="X95" s="125"/>
     </row>
     <row r="96" spans="10:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J96" s="1" t="s">
@@ -14575,23 +14612,23 @@
       </c>
     </row>
     <row r="97" spans="10:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J97" s="123" t="s">
+      <c r="J97" s="125" t="s">
         <v>370</v>
       </c>
-      <c r="K97" s="123"/>
-      <c r="L97" s="123"/>
-      <c r="M97" s="123"/>
-      <c r="N97" s="123"/>
-      <c r="O97" s="123"/>
-      <c r="P97" s="123"/>
-      <c r="Q97" s="123"/>
-      <c r="R97" s="123"/>
-      <c r="S97" s="123"/>
-      <c r="T97" s="123"/>
-      <c r="U97" s="123"/>
-      <c r="V97" s="123"/>
-      <c r="W97" s="123"/>
-      <c r="X97" s="123"/>
+      <c r="K97" s="125"/>
+      <c r="L97" s="125"/>
+      <c r="M97" s="125"/>
+      <c r="N97" s="125"/>
+      <c r="O97" s="125"/>
+      <c r="P97" s="125"/>
+      <c r="Q97" s="125"/>
+      <c r="R97" s="125"/>
+      <c r="S97" s="125"/>
+      <c r="T97" s="125"/>
+      <c r="U97" s="125"/>
+      <c r="V97" s="125"/>
+      <c r="W97" s="125"/>
+      <c r="X97" s="125"/>
     </row>
     <row r="98" spans="10:25" x14ac:dyDescent="0.25">
       <c r="J98" s="1" t="s">
@@ -17986,25 +18023,25 @@
       </c>
     </row>
     <row r="190" spans="10:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J190" s="124" t="s">
+      <c r="J190" s="126" t="s">
         <v>262</v>
       </c>
-      <c r="K190" s="124"/>
-      <c r="L190" s="124"/>
-      <c r="M190" s="124"/>
-      <c r="N190" s="124"/>
-      <c r="O190" s="124"/>
-      <c r="P190" s="124"/>
-      <c r="Q190" s="124"/>
-      <c r="R190" s="124"/>
-      <c r="S190" s="124"/>
-      <c r="T190" s="124"/>
-      <c r="U190" s="124"/>
-      <c r="V190" s="124"/>
-      <c r="W190" s="124"/>
-      <c r="X190" s="124"/>
-      <c r="Y190" s="124"/>
-      <c r="Z190" s="124"/>
+      <c r="K190" s="126"/>
+      <c r="L190" s="126"/>
+      <c r="M190" s="126"/>
+      <c r="N190" s="126"/>
+      <c r="O190" s="126"/>
+      <c r="P190" s="126"/>
+      <c r="Q190" s="126"/>
+      <c r="R190" s="126"/>
+      <c r="S190" s="126"/>
+      <c r="T190" s="126"/>
+      <c r="U190" s="126"/>
+      <c r="V190" s="126"/>
+      <c r="W190" s="126"/>
+      <c r="X190" s="126"/>
+      <c r="Y190" s="126"/>
+      <c r="Z190" s="126"/>
     </row>
     <row r="191" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J191" s="1" t="s">
@@ -18012,25 +18049,25 @@
       </c>
     </row>
     <row r="192" spans="10:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J192" s="123" t="s">
+      <c r="J192" s="125" t="s">
         <v>264</v>
       </c>
-      <c r="K192" s="123"/>
-      <c r="L192" s="123"/>
-      <c r="M192" s="123"/>
-      <c r="N192" s="123"/>
-      <c r="O192" s="123"/>
-      <c r="P192" s="123"/>
-      <c r="Q192" s="123"/>
-      <c r="R192" s="123"/>
-      <c r="S192" s="123"/>
-      <c r="T192" s="123"/>
-      <c r="U192" s="123"/>
-      <c r="V192" s="123"/>
-      <c r="W192" s="123"/>
-      <c r="X192" s="123"/>
-      <c r="Y192" s="123"/>
-      <c r="Z192" s="123"/>
+      <c r="K192" s="125"/>
+      <c r="L192" s="125"/>
+      <c r="M192" s="125"/>
+      <c r="N192" s="125"/>
+      <c r="O192" s="125"/>
+      <c r="P192" s="125"/>
+      <c r="Q192" s="125"/>
+      <c r="R192" s="125"/>
+      <c r="S192" s="125"/>
+      <c r="T192" s="125"/>
+      <c r="U192" s="125"/>
+      <c r="V192" s="125"/>
+      <c r="W192" s="125"/>
+      <c r="X192" s="125"/>
+      <c r="Y192" s="125"/>
+      <c r="Z192" s="125"/>
     </row>
     <row r="193" spans="10:27" x14ac:dyDescent="0.25">
       <c r="J193" s="1" t="s">
@@ -18038,25 +18075,25 @@
       </c>
     </row>
     <row r="194" spans="10:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J194" s="123" t="s">
+      <c r="J194" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="K194" s="123"/>
-      <c r="L194" s="123"/>
-      <c r="M194" s="123"/>
-      <c r="N194" s="123"/>
-      <c r="O194" s="123"/>
-      <c r="P194" s="123"/>
-      <c r="Q194" s="123"/>
-      <c r="R194" s="123"/>
-      <c r="S194" s="123"/>
-      <c r="T194" s="123"/>
-      <c r="U194" s="123"/>
-      <c r="V194" s="123"/>
-      <c r="W194" s="123"/>
-      <c r="X194" s="123"/>
-      <c r="Y194" s="123"/>
-      <c r="Z194" s="123"/>
+      <c r="K194" s="125"/>
+      <c r="L194" s="125"/>
+      <c r="M194" s="125"/>
+      <c r="N194" s="125"/>
+      <c r="O194" s="125"/>
+      <c r="P194" s="125"/>
+      <c r="Q194" s="125"/>
+      <c r="R194" s="125"/>
+      <c r="S194" s="125"/>
+      <c r="T194" s="125"/>
+      <c r="U194" s="125"/>
+      <c r="V194" s="125"/>
+      <c r="W194" s="125"/>
+      <c r="X194" s="125"/>
+      <c r="Y194" s="125"/>
+      <c r="Z194" s="125"/>
     </row>
     <row r="195" spans="10:27" x14ac:dyDescent="0.25">
       <c r="J195" s="1" t="s">
@@ -38613,45 +38650,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="121"/>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="121"/>
-      <c r="AJ1" s="121"/>
-      <c r="AK1" s="121"/>
+      <c r="A1" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -38704,19 +38741,19 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="122" t="s">
+      <c r="E8" s="124" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -38817,11 +38854,11 @@
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="6" t="s">
         <v>37</v>
       </c>
@@ -57640,18 +57677,18 @@
       <c r="H14" s="92"/>
       <c r="I14" s="92"/>
       <c r="J14" s="92"/>
-      <c r="K14" s="143" t="s">
+      <c r="K14" s="129" t="s">
         <v>548</v>
       </c>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="143"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
     </row>
     <row r="15" spans="6:38" x14ac:dyDescent="0.3">
-      <c r="F15" s="131" t="s">
+      <c r="F15" s="130" t="s">
         <v>547</v>
       </c>
-      <c r="G15" s="131" t="s">
+      <c r="G15" s="130" t="s">
         <v>364</v>
       </c>
       <c r="H15" s="90"/>
@@ -57669,26 +57706,26 @@
       <c r="N15" s="94" t="s">
         <v>572</v>
       </c>
-      <c r="O15" s="144" t="s">
+      <c r="O15" s="131" t="s">
         <v>554</v>
       </c>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="141" t="s">
+      <c r="P15" s="128"/>
+      <c r="Q15" s="127" t="s">
         <v>555</v>
       </c>
-      <c r="R15" s="142"/>
-      <c r="S15" s="141" t="s">
+      <c r="R15" s="128"/>
+      <c r="S15" s="127" t="s">
         <v>556</v>
       </c>
-      <c r="T15" s="142"/>
-      <c r="U15" s="141" t="s">
+      <c r="T15" s="128"/>
+      <c r="U15" s="127" t="s">
         <v>557</v>
       </c>
-      <c r="V15" s="142"/>
-      <c r="W15" s="141" t="s">
+      <c r="V15" s="128"/>
+      <c r="W15" s="127" t="s">
         <v>549</v>
       </c>
-      <c r="X15" s="142"/>
+      <c r="X15" s="128"/>
       <c r="Y15" s="95" t="s">
         <v>558</v>
       </c>
@@ -57701,10 +57738,10 @@
       <c r="AB15" s="100" t="s">
         <v>550</v>
       </c>
-      <c r="AC15" s="141" t="s">
+      <c r="AC15" s="127" t="s">
         <v>564</v>
       </c>
-      <c r="AD15" s="142"/>
+      <c r="AD15" s="128"/>
       <c r="AE15" s="95"/>
       <c r="AF15" s="92"/>
       <c r="AG15" s="92"/>
@@ -57714,8 +57751,8 @@
       <c r="AK15" s="92"/>
     </row>
     <row r="16" spans="6:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
       <c r="H16" s="90"/>
       <c r="I16" s="90"/>
       <c r="J16" s="90"/>
@@ -57808,29 +57845,29 @@
       <c r="G33" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="125" t="s">
+      <c r="H33" s="134" t="s">
         <v>576</v>
       </c>
-      <c r="I33" s="126"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="125" t="s">
+      <c r="I33" s="135"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="134" t="s">
         <v>548</v>
       </c>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="125" t="s">
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="134" t="s">
         <v>554</v>
       </c>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="127"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="135"/>
+      <c r="R33" s="136"/>
     </row>
     <row r="34" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F34" s="139" t="s">
+      <c r="F34" s="132" t="s">
         <v>547</v>
       </c>
-      <c r="G34" s="139" t="s">
+      <c r="G34" s="132" t="s">
         <v>364</v>
       </c>
       <c r="H34" s="92" t="s">
@@ -57868,8 +57905,8 @@
       </c>
     </row>
     <row r="35" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F35" s="140"/>
-      <c r="G35" s="140"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="133"/>
       <c r="H35" s="90" t="s">
         <v>577</v>
       </c>
@@ -57921,38 +57958,38 @@
       </c>
     </row>
     <row r="41" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F41" s="131" t="s">
+      <c r="F41" s="130" t="s">
         <v>580</v>
       </c>
-      <c r="G41" s="132" t="s">
+      <c r="G41" s="140" t="s">
         <v>581</v>
       </c>
-      <c r="H41" s="133" t="s">
+      <c r="H41" s="141" t="s">
         <v>588</v>
       </c>
-      <c r="I41" s="135" t="s">
+      <c r="I41" s="143" t="s">
         <v>586</v>
       </c>
-      <c r="J41" s="137" t="s">
+      <c r="J41" s="145" t="s">
         <v>587</v>
       </c>
-      <c r="K41" s="128" t="s">
+      <c r="K41" s="137" t="s">
         <v>582</v>
       </c>
-      <c r="L41" s="129"/>
-      <c r="M41" s="130"/>
-      <c r="N41" s="128" t="s">
+      <c r="L41" s="138"/>
+      <c r="M41" s="139"/>
+      <c r="N41" s="137" t="s">
         <v>598</v>
       </c>
-      <c r="O41" s="129"/>
-      <c r="P41" s="130"/>
+      <c r="O41" s="138"/>
+      <c r="P41" s="139"/>
     </row>
     <row r="42" spans="6:18" x14ac:dyDescent="0.3">
-      <c r="F42" s="131"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="138"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="144"/>
+      <c r="J42" s="146"/>
       <c r="K42" s="110" t="s">
         <v>583</v>
       </c>
@@ -58159,38 +58196,38 @@
     </row>
     <row r="54" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F55" s="131" t="s">
+      <c r="F55" s="130" t="s">
         <v>580</v>
       </c>
-      <c r="G55" s="132" t="s">
+      <c r="G55" s="140" t="s">
         <v>581</v>
       </c>
-      <c r="H55" s="133" t="s">
+      <c r="H55" s="141" t="s">
         <v>588</v>
       </c>
-      <c r="I55" s="135" t="s">
+      <c r="I55" s="143" t="s">
         <v>586</v>
       </c>
-      <c r="J55" s="137" t="s">
+      <c r="J55" s="145" t="s">
         <v>587</v>
       </c>
-      <c r="K55" s="128" t="s">
+      <c r="K55" s="137" t="s">
         <v>600</v>
       </c>
-      <c r="L55" s="129"/>
-      <c r="M55" s="130"/>
-      <c r="N55" s="128" t="s">
+      <c r="L55" s="138"/>
+      <c r="M55" s="139"/>
+      <c r="N55" s="137" t="s">
         <v>601</v>
       </c>
-      <c r="O55" s="129"/>
-      <c r="P55" s="130"/>
+      <c r="O55" s="138"/>
+      <c r="P55" s="139"/>
     </row>
     <row r="56" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F56" s="131"/>
-      <c r="G56" s="132"/>
-      <c r="H56" s="134"/>
-      <c r="I56" s="136"/>
-      <c r="J56" s="138"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="140"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="144"/>
+      <c r="J56" s="146"/>
       <c r="K56" s="110" t="s">
         <v>583</v>
       </c>
@@ -58348,13 +58385,17 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="H33:J33"/>
     <mergeCell ref="F41:F42"/>
@@ -58364,18 +58405,14 @@
     <mergeCell ref="K33:N33"/>
     <mergeCell ref="K41:M41"/>
     <mergeCell ref="N41:P41"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
     <mergeCell ref="F34:F35"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="O15:P15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
